--- a/WBFFQ/DB and Documents/WBFFQ.xlsx
+++ b/WBFFQ/DB and Documents/WBFFQ.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="383">
   <si>
     <t>Qdesceng</t>
   </si>
@@ -1183,87 +1183,6 @@
   </si>
   <si>
     <t>Rvwb bv /g‡b †bB</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('1', 'dataid','FrmDataID', 'tblMainques','1.1 bs ','Cluster Id &amp; Mother Id','','c1_2','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('2', 'c1_2','FrmText', 'tblMainques','1.2','1.2 Target Child’s Name','','c1_3','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('3', 'c1_3','FrmYeartoMin', 'tblMainques','1.3','1.3 Child Age: Enter only months or days','','c1_5','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('6', 'c1_7','FrmSingleChoice', 'tblMainques','1.7','1.7 Education of Respondent:','','c1_11','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('7', 'c1_11','FrmDate', 'tblMainques','1.11 Z_¨ msMÖ‡ni ZvwiL ','1.11 Date of Interview','','M1','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('8', 'M1','FrmMessage', 'tblMainquesM','Iqvm †ewbwdU Kgb gwWDj 6 Lv`¨ MÖnY ZvwjKv Dcv`vb welqK cÖkœcÎ','WASH Benefits Common Module 6 Food Frequency Questionnaire','','M2','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('9', 'M2','FrmMessage', 'tblMainquesM','Avwg GLb Avcbvi wkïi (bvg) Lv`¨MªnY msµvšÍ  wel‡q wKQy cÖkœ Ki‡Z PvB| cÖ_‡g Avgvi Rvbv `iKvi ‡h MZKvj Ges MZ 7 w`‡bi g‡a¨ wkïi (bvg) Lv`¨MªnY m¤ú‡K© ej‡Z cvi‡eb','Now I would like to ask you some questions about feeding [NAME].  First I need to know if you will be able to tell me about feeding [NAME] yesterday and over the last week.','','c601','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('10', 'c601','FrmSingleChoice', 'tblMainques','601. Avcwb wK Rv‡bb wkï (bvg) MZKvj wK wK †L‡q‡Q?','601. Do you know what [NAME] consumed yesterday?','','c602','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('11', 'c602','FrmSingleChoice', 'tblMainques','602. Ggb †KD wK Av‡Q †h Rv‡b  wkï wK †L‡qwQj Ges whwb Avgv‡`i cÖkœmg~‡ni DËi w`‡q mnvqZv Ki‡e?','602. Is there someone else who knows what the child ate, who can sit with us today and help answer questions?','','c603','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('12', 'c603','FrmSingleChoice', 'tblMainques','603. wkïi mv‡_ DËi`vZvi m¤ú©K|','603. Respondent relationship to the participating child.','','M11','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('13', 'c603_other','FrmText', 'tblMainques','Ab¨vb¨ (wbwÏ©ó Kiyb)','Other (specify)','','M11','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('14', 'M11','FrmMessage', 'tblMainquesM','wkï †h Lvevi †L‡q‡Q †hgb ey‡Ki `ya, Zij Lvevi Ges Ab¨vb¨ Lvevi','Breastfeeding, Liquids, and Foods Eaten by the Child','','c604','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('17', 'c605','FrmSingleChoice', 'tblMainques','605. wkïwU wK GL‡bv ey‡Ki `ya cvb Ki‡Q, bvwK †m m¤ú~b©fv‡e evowZ Lvevi Lv‡”Q?( hw` wkï ey‡Ki `ya Lvq Zvn‡j 1 †KvW Kiæb)','605. Is the baby still breastfeeding, or is he/she completely weaned?','','c606','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('18', 'c606','FrmYeartoMin', 'tblMainques','606. wkïwUi (bvg) hLb me©‡kl ey‡Ki `ya cvb K‡iwQj,ZLb Zvi eqm KZ wQj ?','606. How old was [NAME] the last time he/she was breastfed? Write 99 if Don’t know','','c607','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('25', 'c607c','FrmSingleChoice', 'tblMainques','607 M. MZ mßv‡n wK †Kvb w`b wkïi (bvg) ¶zavg›`v n‡qwQj?','607 C. In the past week, were there any days that [NAME] lost his/her appetite?','','M3','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('26', 'c607c_days','FrmNumeric', 'tblMainques','KZ w`b?','How many days?','','M3','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('27', 'M3','FrmMessage', 'tblMainquesM','GLb MZKvj mvivw`b Avi mviviv‡Z (†kl 24 N›Uv, mv¶vrKv‡ii mgq ‡_‡K) Avcbvi wkï [bvg] wK wK Zij Lvevi †L‡q‡Q Avwg †m m¤ú‡K© wKQz Rvb‡Z PvB‡ev| &lt;i&gt;Avcbvi wkï ‡h Zij Lvevi †L‡q‡Q &amp; Avwg †m m¤ú‡K© Rvb‡Z PvB, Zv Ab¨ †h †Kvb Lvev‡ii mv‡_ wgwk‡q †nvK bv †Kb | &lt;/i&gt; &lt;br&gt; &lt;br&gt; ZvwjKv †_‡K cÖkœ¸‡jv co–b Ges mwVK N‡i wUK wPý w`b','Now I would like to ask you about liquids that [NAME] may have had yesterday during the day or at night (last 24hours, starting from the time interview). &lt;i&gt; I am interested in whether your child had the item even if it was combined with other foods.&lt;/i&gt; &lt;br&gt; &lt;br&gt; For each item on the list, read the question below and tick the appropriate box.','','c608','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('28', 'c608','FrmMultipleCheckComboTwo', 'tblMainques','608. ‡Kvb cvbxq cvb K‡i‡Q wKbv? (ZvwjKv †_‡K cÖ‡Z¨KwU cÖkœ c‡o †kvbvb)','608. Did [NAME] drink/have any [ITEM FROM LIST]?   Read question 14  times, once for each item','','M5','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('29', 'M5','FrmMessage', 'tblMainques','Gici MZKvj mvivw`b Avi iv‡Z (‡kl 24 N›Uv, mv¶vrKv‡ii mgq ‡_‡K) Avcbvi wkï [bvg] wK wK †L‡q‡Q Avwg †m m¤ú‡K© wKQzcÖkœ wRÁvmv Ki‡ev| Avcbvi wkï hv wKQz †L‡q‡Q  Avwg †m m¤ú‡K© me wKQzB Rvb‡Z PvB, Zv evmvq ev Ab¨ †h †Kvb RvqMvq †nvK bv †Kb|&lt;br&gt; &lt;br&gt;1. wb‡`©kbvi Rb¨ Avjv`vc„ôv e¨envi Kiæb,hv gv ‡K g‡b Ki‡Z mvnvh¨ Ki‡e &lt;br&gt; &lt;br&gt;2. wb‡Pi Lvev‡ii ZvwjKvwU c‡o ‡kvbv‡eb bv| gv‡K ej‡Z w`b wkïwU wK ‡L‡qwQj|&lt;br&gt; &lt;br&gt;3. wkïwU hv ‡L‡qwQj, cÖwZwU Lvevi (A_ev Dcv`vb) G ‡MvjwPý w`b Ges n¨uv †Z wUKwPý w`b &lt;br&gt; &lt;br&gt;4. gv hLb †Kvb Lvev‡ii K_v e‡j hv‡Z A‡bK¸‡jv Dcv`vb e¨envi Kiv n‡q‡Q †hgb wLPywo, mywR A_ev byWzjm ZLb cÖwZwU Dcv`v‡bi K_v wRÁvmv Kiæb| gmjvi K_v wR‡Ám Ki‡Z fzj‡eb bv| &lt;br&gt; &lt;br&gt;5. hw` Lvev‡i gvQ A_ev gvsm ‡_‡K _v‡K, Zvn‡j wR‡Ám Kiæb wkï wK gvQ ev gvsm ‡L‡q‡Q bvwK ïay ‡Svj †L‡q‡Q| hw` ïay †Svj †L‡q _v‡K Zvn‡j gvQ ev gvsm wUK wPý w`‡eb bv|','Next I would like to ask you some questions about the foods that [NAME] ate yesterday during the day or at night (last 24hours, starting from the time interview). I would like to know everything that [NAME] ate, whether at home or someplace else. &lt;br&gt; &lt;br&gt;1. Use the separate page of instructions to help the mother remember. &lt;br&gt; &lt;br&gt;2. Do not read the list of foods below. Let the mother tell you what the child ate.&lt;br&gt; &lt;br&gt;3.Circle each food (or ingredient) that the child ate, and tick 1 Yes for that food group.&lt;br&gt; &lt;br&gt;4. When the mother mentions a dish with many ingredients such as kichuri, suji, or noodles, ask for all ingredients.Dont forget about spices.&lt;br&gt; &lt;br&gt;5. If the dish had fish or meat, ask if the child got the fish/meat or only the broth. If child ate only the broth, do not circle fish or meat','','c609','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('30', 'c609','FrmMultiple', 'tblMainques','609. wkï MZKvj ‡h Lvevi/Lv`¨ ˆZixi Dcv`vb †L‡q‡Q(†Svj A_ev wm× hv B †nvK bv †Kb)|','609. Foods/ingredients in recipes (may be in a sauce or porridge) eaten by the child yesterday.','','c610','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('31', 'c610','FrmSingleChoice', 'tblMainques','610. Avcwb MZKvj mvivw`b Avi iv‡Z (‡kl 24 N›Uv, mv¶vrKv‡ii  mgq ‡_‡K) Avcbvi wkï [bvg] wK wK †L‡q‡Q Zv ej‡jb [wcQ‡bi c„ôvi †Mvj Kiv Lvev‡i bvg ¸‡jv co–b] GQvov Avcbvi wkï [bvg] bv¯Ívmn Avi wK wKQz †L‡q‡Q?','610. You mentioned that [NAME] ate [read back circled foods on previous page] yesterday during the day or at night (last 24hours, starting from the time interview). Did [NAME] have any other food at all, including snacks?','','M6','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('32', 'M6','FrmMessage', 'tblMainQuesM','hw` n¨v nq, Zvn‡j c~‡e©i c„ôvi cÖkœ ¸‡jv Avevi Kiyb Ges wUK wPý w`b | g‡b Kiv †kl n‡j, hw` †mB `‡ji †Kvb Lvevi ev Lv`¨ Dcv`v‡b wUK †`qv bv nq Zvn‡j  bv †Z wUK wPý w`b|','If “yes”, use the same probing questions and tick on the list on previous page. At the end of the recall tick “[√]  2  No” if no food or ingredient is circled for that group.','','c610a','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('33', 'c610a','FrmNumeric', 'tblMainques','610 K. MZKvj mvivw`b Avi mviviv‡Z (‡kl 24 N›Uv, mv¶vrKv‡ii  mgq ‡_‡K) Avcbvi wkï [bvg] KZevi k³, Avav k³ Av_ev big Lvevi †L‡q‡Q Zij Lvevi ev‡`? †bvU : mKj ai‡bi `ya ev cvwb w`‡q dzUv‡bv km¨ RvZxq Lvevi','610 A. How many times did [NAME] eat solid, semi-solid, or soft foods other than liquids yesterday during the day or night (last 24hours, starting from the time interview)?  Note: include all forms of porridge, including thin porridge.','','M7','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('34', 'M7','FrmMessage', 'tblMainQuesM','Avwg GLb Avcbv‡K Avcbvi wkï [bvg] MZ 7w`‡b [mv¶¨vrKv‡ii w`b †_‡K] wK wK Lvevi †L‡q‡Q †m wel‡q wKQy cÖkœ Ki‡Z PvB|cÖwZwU LveviGi K_v Avwg Rvb‡Z PvB‡ev, MZ 7w`‡bi g‡a¨ KZw`b Avcbvi wkï wbg œwjwLZ Lvevi ¸‡jv †L‡q‡Qb Zv ejyb|&lt;br&gt;&lt;br&gt;hw` wkïwU (bvg) Lvevi †L‡q _v‡K, GgbwK GwU hw` Ab¨vb¨ Lvev‡ii ms‡½ mshy³ _v‡K, D`vniY¯^iƒc,hw` wkïwU (bvg) gyiwMi gvs‡mi †Svj Lvq hv wcqvR, U‡g‡Uv, gyiwMi gvsm w`‡q ‰Zix Zvn‡j Avvwg hLb Avvcbv‡K cÖkœ Ki‡ev gvsm m¤ú‡K© ZLb Avcwb Ón¨vuÓ ej‡eb Avevi hLb Avwg Avcbv‡K cÖkœ Ki‡ev mewR  m¤ú‡K© ZLb Avcwb Avevi Ón¨vuÓ ej‡eb hw` Avcbvi wkï (bvg) `y‡Uv  Lvevi B†L‡q _v‡K, wKš‘ hw` gyiwMi gvsm Avi mewR †KvbUvB bv †L‡q _v‡K Zvn‡j Ón¨vuÓ ej‡eb bv KviY †m G¸jv Lvq wb| ,br&gt;&lt;br&gt;&lt;i&gt;ZvwjKvi cÖwZwU Lvev‡ii Rb¨, cÖkœwU ciyb Ges DIi `vZv †h Kqw`b e‡j †mB bv¤^vi wU Lvwj N‡i wjLyb (0-7)&lt;/i&gt;','Now I would like to ask you some questions about foods [NAME] ate in the last 7 days, since last [INTERVIEW DAY]. For each food I ask about, please tell me how many days in the last 7 days you think the child ate that food.&lt;br&gt;&lt;br&gt;I would like to know if [NAME] had the food, even if it was combined with other foods. For example, if [NAME] ate a sauce or relish made with chicken, onions, and tomatoes, you should say “yes” when I ask about meat, and again “yes” when I ask about vegetables. However, if [NAME] only had the broth, not the chicken or vegetables, do not say “yes” because they did not eat it. &lt;br&gt;&lt;br&gt;&lt;i&gt;For each item on the list, read the question below and fill in the number of days the respondent says (0-7).&lt;/i&gt;','','c611','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('35', 'c611','FrmMultipleCheckComboTwo', 'tblMainques','611. MZ mvZ w`‡b Avcbvi wkï [bvg] Kqw`b GB Lvevi †L‡q‡Q [ ZvwjKvi Lvevi]? (ZvwjKv †_‡K cÖ‡Z¨KwU cÖkœ c‡o †kvbvb )','611. How many days in the last 7 days did [NAME] have [ITEM FROM LIST]?','','c612_Message','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('36', 'c612_Message','FrmMessage', 'tblMainquesM','612. MZ mvZ w`‡bi g‡a¨ Kqw`b Avcbvi wkï [bvg] GB Lvevi †L‡q‡Q [mv¶vrKv‡ii w`b †_‡K] [ZvwjKvi Lvevi]? wkï Lv`¨ Ges we‡kl Lvevi hv wkï MZ mvZ w`‡b †L‡q‡Q','612. On how many days in the last 7 days, since last [INTERVIEW DAY], did [NAME] have any [ITEM FROM LIST]? Infant formula and special foods eaten by the child in the last seven days','','c612_1','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
-  </si>
-  <si>
-    <t>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('38', 'b612','frmfoodgroup', 'tblMainQues','612. Avwg GLb Rvb‡Z PvB Avcbvi wkï [bvg]  MZ 7w`‡bi g‡a¨ wbg œwjwLZ Lvevi¸‡jv hv evRvi ‡_‡K ‡Kbv n‡q‡Q, ‡mMy‡jv KZw`b ‡L‡q‡Q |','Now I would like to ask you during last 7 days how many days [Name] has eaten any of these foods items bought from the market.','','M8','','', '','','','','','','',NULL,NULL,'varchar(100)');</t>
   </si>
   <si>
     <t>c1_8</t>
@@ -1452,7 +1371,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1641,12 +1560,6 @@
       <color theme="1"/>
       <name val="SutonnyMJ"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1758,7 +1671,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1988,9 +1901,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -2334,10 +2244,10 @@
   <dimension ref="A1:DK67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1"/>
@@ -2560,8 +2470,9 @@
       <c r="T2" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="64" t="s">
-        <v>368</v>
+      <c r="U2" s="64" t="str">
+        <f>"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A2&amp;"', '" &amp;B2&amp;"','" &amp;C2&amp;"', '" &amp;D2&amp;"','" &amp;E2&amp;"','" &amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"', '"&amp;K2&amp;"','"&amp;L2&amp;"','"&amp;M2&amp;"','"&amp;N2&amp;"','"&amp;O2&amp;"','"&amp;P2&amp;"','"&amp;Q2&amp;"',"&amp;R2&amp;","&amp;S2&amp;",'"&amp;T2&amp;"');"</f>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('1', 'dataid','FrmDataID', 'tblMainques','1.1 bs ','Cluster Id &amp; Mother Id','','c1_2','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="3" spans="1:115" s="31" customFormat="1" ht="19.5">
@@ -2605,8 +2516,9 @@
       <c r="T3" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="64" t="s">
-        <v>369</v>
+      <c r="U3" s="64" t="str">
+        <f t="shared" ref="U3:U31" si="0">"insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('" &amp;A3&amp;"', '" &amp;B3&amp;"','" &amp;C3&amp;"', '" &amp;D3&amp;"','" &amp;E3&amp;"','" &amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"', '"&amp;K3&amp;"','"&amp;L3&amp;"','"&amp;M3&amp;"','"&amp;N3&amp;"','"&amp;O3&amp;"','"&amp;P3&amp;"','"&amp;Q3&amp;"',"&amp;R3&amp;","&amp;S3&amp;",'"&amp;T3&amp;"');"</f>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('2', 'c1_2','FrmText', 'tblMainques','1.2','1.2 Target Child’s Name','','c1_3','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="4" spans="1:115" s="31" customFormat="1" ht="25.5">
@@ -2650,13 +2562,14 @@
       <c r="T4" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="64" t="s">
-        <v>370</v>
+      <c r="U4" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('3', 'c1_3','FrmYeartoMin', 'tblMainques','1.3','1.3 Child Age: Enter only months or days','','c1_7','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="5" spans="1:115" s="31" customFormat="1" ht="29.25" customHeight="1">
       <c r="A5" s="78">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="65" t="s">
         <v>67</v>
@@ -2675,7 +2588,7 @@
       </c>
       <c r="G5" s="66"/>
       <c r="H5" s="65" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="I5" s="58"/>
       <c r="J5" s="62"/>
@@ -2695,14 +2608,17 @@
       <c r="T5" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="64" t="s">
-        <v>371</v>
+      <c r="U5" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('4', 'c1_7','FrmSingleChoice', 'tblMainques','1.7','1.7 Education of Respondent:','','c1_8','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="6" spans="1:115" s="62" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A6" s="78"/>
+      <c r="A6" s="78">
+        <v>5</v>
+      </c>
       <c r="B6" s="65" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="C6" s="58" t="s">
         <v>26</v>
@@ -2714,11 +2630,11 @@
         <v>1.8</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="G6" s="66"/>
       <c r="H6" s="65" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="I6" s="58"/>
       <c r="L6" s="63"/>
@@ -2727,15 +2643,29 @@
       <c r="O6" s="63"/>
       <c r="P6" s="63"/>
       <c r="Q6" s="63"/>
-      <c r="U6" s="64"/>
+      <c r="R6" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('5', 'c1_8','FrmText', 'tblMainques','1.8','1.8 Address:','','c1_9','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
     </row>
     <row r="7" spans="1:115" s="62" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A7" s="78"/>
+      <c r="A7" s="78">
+        <v>6</v>
+      </c>
       <c r="B7" s="65" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="58" t="s">
         <v>27</v>
@@ -2744,11 +2674,11 @@
         <v>1.9</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="G7" s="66"/>
       <c r="H7" s="65" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="I7" s="58"/>
       <c r="L7" s="63"/>
@@ -2757,15 +2687,29 @@
       <c r="O7" s="63"/>
       <c r="P7" s="63"/>
       <c r="Q7" s="63"/>
-      <c r="U7" s="64"/>
+      <c r="R7" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('6', 'c1_9','FrmNumeric', 'tblMainques','1.9','1.9 Mobile Number:','','c1_10','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
     </row>
     <row r="8" spans="1:115" s="62" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="78"/>
+      <c r="A8" s="78">
+        <v>7</v>
+      </c>
       <c r="B8" s="65" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="D8" s="58" t="s">
         <v>27</v>
@@ -2774,7 +2718,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="G8" s="66"/>
       <c r="H8" s="65" t="s">
@@ -2787,11 +2731,23 @@
       <c r="O8" s="63"/>
       <c r="P8" s="63"/>
       <c r="Q8" s="63"/>
-      <c r="U8" s="64"/>
+      <c r="R8" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('7', 'c1_10','FrmComboBox', 'tblMainques','1.1','1.10 FRA Name and ID','','c1_11','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
     </row>
     <row r="9" spans="1:115" s="32" customFormat="1" ht="13.5">
       <c r="A9" s="78">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="65" t="s">
         <v>68</v>
@@ -2830,13 +2786,14 @@
       <c r="T9" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="64" t="s">
-        <v>372</v>
+      <c r="U9" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('8', 'c1_11','FrmDate', 'tblMainques','1.11 Z_¨ msMÖ‡ni ZvwiL ','1.11 Date of Interview','','M1','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="10" spans="1:115" s="32" customFormat="1" ht="25.5">
       <c r="A10" s="78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="69" t="s">
         <v>58</v>
@@ -2875,13 +2832,14 @@
       <c r="T10" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U10" s="64" t="s">
-        <v>373</v>
+      <c r="U10" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('9', 'M1','FrmMessage', 'tblMainquesM','Iqvm †ewbwdU Kgb gwWDj 6 Lv`¨ MÖnY ZvwjKv Dcv`vb welqK cÖkœcÎ','WASH Benefits Common Module 6 Food Frequency Questionnaire','','M2','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="11" spans="1:115" s="32" customFormat="1" ht="45.75" customHeight="1">
       <c r="A11" s="78">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="69" t="s">
         <v>59</v>
@@ -2920,13 +2878,14 @@
       <c r="T11" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U11" s="64" t="s">
-        <v>374</v>
+      <c r="U11" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('10', 'M2','FrmMessage', 'tblMainquesM','Avwg GLb Avcbvi wkïi (bvg) Lv`¨MªnY msµvšÍ  wel‡q wKQy cÖkœ Ki‡Z PvB| cÖ_‡g Avgvi Rvbv `iKvi ‡h MZKvj Ges MZ 7 w`‡bi g‡a¨ wkïi (bvg) Lv`¨MªnY m¤ú‡K© ej‡Z cvi‡eb','Now I would like to ask you some questions about feeding [NAME].  First I need to know if you will be able to tell me about feeding [NAME] yesterday and over the last week.','','c601','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="12" spans="1:115" s="12" customFormat="1" ht="25.5">
       <c r="A12" s="78">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="42" t="s">
         <v>69</v>
@@ -2965,13 +2924,14 @@
       <c r="T12" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U12" s="64" t="s">
-        <v>375</v>
+      <c r="U12" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('11', 'c601','FrmSingleChoice', 'tblMainques','601. Avcwb wK Rv‡bb wkï (bvg) MZKvj wK wK †L‡q‡Q?','601. Do you know what [NAME] consumed yesterday?','','c602','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="13" spans="1:115" s="12" customFormat="1" ht="39">
       <c r="A13" s="78">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="42" t="s">
         <v>70</v>
@@ -3010,13 +2970,14 @@
       <c r="T13" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U13" s="64" t="s">
-        <v>376</v>
+      <c r="U13" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('12', 'c602','FrmSingleChoice', 'tblMainques','602. Ggb †KD wK Av‡Q †h Rv‡b  wkï wK †L‡qwQj Ges whwb Avgv‡`i cÖkœmg~‡ni DËi w`‡q mnvqZv Ki‡e?','602. Is there someone else who knows what the child ate, who can sit with us today and help answer questions?','','c603','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="14" spans="1:115" s="12" customFormat="1" ht="25.5">
       <c r="A14" s="78">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="42" t="s">
         <v>71</v>
@@ -3055,13 +3016,14 @@
       <c r="T14" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U14" s="64" t="s">
-        <v>377</v>
+      <c r="U14" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('13', 'c603','FrmSingleChoice', 'tblMainques','603. wkïi mv‡_ DËi`vZvi m¤ú©K|','603. Respondent relationship to the participating child.','','M11','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="15" spans="1:115" s="12" customFormat="1" ht="25.5">
       <c r="A15" s="78">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="42" t="s">
         <v>72</v>
@@ -3100,13 +3062,14 @@
       <c r="T15" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U15" s="64" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:115" s="12" customFormat="1" ht="25.5">
+      <c r="U15" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('14', 'c603_other','FrmText', 'tblMainques','Ab¨vb¨ (wbwÏ©ó Kiyb)','Other (specify)','','M11','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:115" s="12" customFormat="1" ht="19.5">
       <c r="A16" s="78">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="69" t="s">
         <v>65</v>
@@ -3145,13 +3108,14 @@
       <c r="T16" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U16" s="64" t="s">
-        <v>379</v>
+      <c r="U16" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('15', 'M11','FrmMessage', 'tblMainquesM','wkï †h Lvevi †L‡q‡Q †hgb ey‡Ki `ya, Zij Lvevi Ges Ab¨vb¨ Lvevi','Breastfeeding, Liquids, and Foods Eaten by the Child','','c605','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="12" customFormat="1" ht="39">
       <c r="A17" s="78">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="42" t="s">
         <v>75</v>
@@ -3190,13 +3154,14 @@
       <c r="T17" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U17" s="64" t="s">
-        <v>380</v>
+      <c r="U17" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('16', 'c605','FrmSingleChoice', 'tblMainques','605. wkïwU wK GL‡bv ey‡Ki `ya cvb Ki‡Q, bvwK †m m¤ú~b©fv‡e evowZ Lvevi Lv‡”Q?( hw` wkï ey‡Ki `ya Lvq Zvn‡j 1 †KvW Kiæb)','605. Is the baby still breastfeeding, or is he/she completely weaned?','','c606','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="12" customFormat="1" ht="19.5">
       <c r="A18" s="78">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="42" t="s">
         <v>76</v>
@@ -3235,13 +3200,14 @@
       <c r="T18" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="64" t="s">
-        <v>381</v>
+      <c r="U18" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('17', 'c606','FrmYeartoMin', 'tblMainques','606. wkïwUi (bvg) hLb me©‡kl ey‡Ki `ya cvb K‡iwQj,ZLb Zvi eqm KZ wQj ?','606. How old was [NAME] the last time he/she was breastfed? Write 99 if Don’t know','','c607c','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="12" customFormat="1" ht="25.5">
       <c r="A19" s="78">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B19" s="42" t="s">
         <v>80</v>
@@ -3280,13 +3246,14 @@
       <c r="T19" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U19" s="64" t="s">
-        <v>382</v>
+      <c r="U19" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('18', 'c607c','FrmSingleChoice', 'tblMainques','607 M. MZ mßv‡n wK †Kvb w`b wkïi (bvg) ¶zavg›`v n‡qwQj?','607 C. In the past week, were there any days that [NAME] lost his/her appetite?','','M3','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="12" customFormat="1" ht="25.5">
       <c r="A20" s="78">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B20" s="42" t="s">
         <v>102</v>
@@ -3325,13 +3292,14 @@
       <c r="T20" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U20" s="64" t="s">
-        <v>383</v>
+      <c r="U20" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('19', 'c607c_days','FrmNumeric', 'tblMainques','KZ w`b?','How many days?','','M3','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="12" customFormat="1" ht="97.5">
       <c r="A21" s="78">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B21" s="42" t="s">
         <v>60</v>
@@ -3370,13 +3338,14 @@
       <c r="T21" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U21" s="64" t="s">
-        <v>384</v>
+      <c r="U21" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('20', 'M3','FrmMessage', 'tblMainquesM','GLb MZKvj mvivw`b Avi mviviv‡Z (†kl 24 N›Uv, mv¶vrKv‡ii mgq ‡_‡K) Avcbvi wkï [bvg] wK wK Zij Lvevi †L‡q‡Q Avwg †m m¤ú‡K© wKQz Rvb‡Z PvB‡ev| &lt;i&gt;Avcbvi wkï ‡h Zij Lvevi †L‡q‡Q &amp; Avwg †m m¤ú‡K© Rvb‡Z PvB, Zv Ab¨ †h †Kvb Lvev‡ii mv‡_ wgwk‡q †nvK bv †Kb | &lt;/i&gt; &lt;br&gt; &lt;br&gt; ZvwjKv †_‡K cÖkœ¸‡jv co–b Ges mwVK N‡i wUK wPý w`b','Now I would like to ask you about liquids that [NAME] may have had yesterday during the day or at night (last 24hours, starting from the time interview). &lt;i&gt; I am interested in whether your child had the item even if it was combined with other foods.&lt;/i&gt; &lt;br&gt; &lt;br&gt; For each item on the list, read the question below and tick the appropriate box.','','c608','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="12" customFormat="1" ht="38.25">
       <c r="A22" s="78">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B22" s="42" t="s">
         <v>81</v>
@@ -3415,13 +3384,14 @@
       <c r="T22" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U22" s="64" t="s">
-        <v>385</v>
+      <c r="U22" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('21', 'c608','FrmMultipleCheckComboTwo', 'tblMainques','608. ‡Kvb cvbxq cvb K‡i‡Q wKbv? (ZvwjKv †_‡K cÖ‡Z¨KwU cÖkœ c‡o †kvbvb)','608. Did [NAME] drink/have any [ITEM FROM LIST]?   Read question 14  times, once for each item','','M5','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="12" customFormat="1" ht="99.95" customHeight="1">
       <c r="A23" s="78">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B23" s="42" t="s">
         <v>61</v>
@@ -3460,13 +3430,14 @@
       <c r="T23" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U23" s="64" t="s">
-        <v>386</v>
+      <c r="U23" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('22', 'M5','FrmMessage', 'tblMainques','Gici MZKvj mvivw`b Avi iv‡Z (‡kl 24 N›Uv, mv¶vrKv‡ii mgq ‡_‡K) Avcbvi wkï [bvg] wK wK †L‡q‡Q Avwg †m m¤ú‡K© wKQzcÖkœ wRÁvmv Ki‡ev| Avcbvi wkï hv wKQz †L‡q‡Q  Avwg †m m¤ú‡K© me wKQzB Rvb‡Z PvB, Zv evmvq ev Ab¨ †h †Kvb RvqMvq †nvK bv †Kb|&lt;br&gt; &lt;br&gt;1. wb‡`©kbvi Rb¨ Avjv`vc„ôv e¨envi Kiæb,hv gv ‡K g‡b Ki‡Z mvnvh¨ Ki‡e &lt;br&gt; &lt;br&gt;2. wb‡Pi Lvev‡ii ZvwjKvwU c‡o ‡kvbv‡eb bv| gv‡K ej‡Z w`b wkïwU wK ‡L‡qwQj|&lt;br&gt; &lt;br&gt;3. wkïwU hv ‡L‡qwQj, cÖwZwU Lvevi (A_ev Dcv`vb) G ‡MvjwPý w`b Ges n¨uv †Z wUKwPý w`b &lt;br&gt; &lt;br&gt;4. gv hLb †Kvb Lvev‡ii K_v e‡j hv‡Z A‡bK¸‡jv Dcv`vb e¨envi Kiv n‡q‡Q †hgb wLPywo, mywR A_ev byWzjm ZLb cÖwZwU Dcv`v‡bi K_v wRÁvmv Kiæb| gmjvi K_v wR‡Ám Ki‡Z fzj‡eb bv| &lt;br&gt; &lt;br&gt;5. hw` Lvev‡i gvQ A_ev gvsm ‡_‡K _v‡K, Zvn‡j wR‡Ám Kiæb wkï wK gvQ ev gvsm ‡L‡q‡Q bvwK ïay ‡Svj †L‡q‡Q| hw` ïay †Svj †L‡q _v‡K Zvn‡j gvQ ev gvsm wUK wPý w`‡eb bv|','Next I would like to ask you some questions about the foods that [NAME] ate yesterday during the day or at night (last 24hours, starting from the time interview). I would like to know everything that [NAME] ate, whether at home or someplace else. &lt;br&gt; &lt;br&gt;1. Use the separate page of instructions to help the mother remember. &lt;br&gt; &lt;br&gt;2. Do not read the list of foods below. Let the mother tell you what the child ate.&lt;br&gt; &lt;br&gt;3.Circle each food (or ingredient) that the child ate, and tick 1 Yes for that food group.&lt;br&gt; &lt;br&gt;4. When the mother mentions a dish with many ingredients such as kichuri, suji, or noodles, ask for all ingredients.Dont forget about spices.&lt;br&gt; &lt;br&gt;5. If the dish had fish or meat, ask if the child got the fish/meat or only the broth. If child ate only the broth, do not circle fish or meat','','c609','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="12" customFormat="1" ht="91.5" customHeight="1">
       <c r="A24" s="78">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B24" s="42" t="s">
         <v>82</v>
@@ -3505,13 +3476,14 @@
       <c r="T24" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U24" s="64" t="s">
-        <v>387</v>
+      <c r="U24" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('23', 'c609','FrmMultiple', 'tblMainques','609. wkï MZKvj ‡h Lvevi/Lv`¨ ˆZixi Dcv`vb †L‡q‡Q(†Svj A_ev wm× hv B †nvK bv †Kb)|','609. Foods/ingredients in recipes (may be in a sauce or porridge) eaten by the child yesterday.','','c610','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="12" customFormat="1" ht="76.5">
       <c r="A25" s="78">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B25" s="42" t="s">
         <v>83</v>
@@ -3550,13 +3522,14 @@
       <c r="T25" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U25" s="64" t="s">
-        <v>388</v>
+      <c r="U25" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('24', 'c610','FrmSingleChoice', 'tblMainques','610. Avcwb MZKvj mvivw`b Avi iv‡Z (‡kl 24 N›Uv, mv¶vrKv‡ii  mgq ‡_‡K) Avcbvi wkï [bvg] wK wK †L‡q‡Q Zv ej‡jb [wcQ‡bi c„ôvi †Mvj Kiv Lvev‡i bvg ¸‡jv co–b] GQvov Avcbvi wkï [bvg] bv¯Ívmn Avi wK wKQz †L‡q‡Q?','610. You mentioned that [NAME] ate [read back circled foods on previous page] yesterday during the day or at night (last 24hours, starting from the time interview). Did [NAME] have any other food at all, including snacks?','','M6','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="12" customFormat="1" ht="63.75">
       <c r="A26" s="78">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B26" s="42" t="s">
         <v>62</v>
@@ -3595,13 +3568,14 @@
       <c r="T26" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U26" s="64" t="s">
-        <v>389</v>
+      <c r="U26" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('25', 'M6','FrmMessage', 'tblMainQuesM','hw` n¨v nq, Zvn‡j c~‡e©i c„ôvi cÖkœ ¸‡jv Avevi Kiyb Ges wUK wPý w`b | g‡b Kiv †kl n‡j, hw` †mB `‡ji †Kvb Lvevi ev Lv`¨ Dcv`v‡b wUK †`qv bv nq Zvn‡j  bv †Z wUK wPý w`b|','If “yes”, use the same probing questions and tick on the list on previous page. At the end of the recall tick “[√]  2  No” if no food or ingredient is circled for that group.','','c610a','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="12" customFormat="1" ht="78">
       <c r="A27" s="78">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B27" s="42" t="s">
         <v>88</v>
@@ -3640,13 +3614,14 @@
       <c r="T27" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U27" s="64" t="s">
-        <v>390</v>
+      <c r="U27" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('26', 'c610a','FrmNumeric', 'tblMainques','610 K. MZKvj mvivw`b Avi mviviv‡Z (‡kl 24 N›Uv, mv¶vrKv‡ii  mgq ‡_‡K) Avcbvi wkï [bvg] KZevi k³, Avav k³ Av_ev big Lvevi †L‡q‡Q Zij Lvevi ev‡`? †bvU : mKj ai‡bi `ya ev cvwb w`‡q dzUv‡bv km¨ RvZxq Lvevi','610 A. How many times did [NAME] eat solid, semi-solid, or soft foods other than liquids yesterday during the day or night (last 24hours, starting from the time interview)?  Note: include all forms of porridge, including thin porridge.','','M7','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="12" customFormat="1" ht="42.75" customHeight="1">
       <c r="A28" s="78">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B28" s="42" t="s">
         <v>64</v>
@@ -3685,13 +3660,14 @@
       <c r="T28" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U28" s="64" t="s">
-        <v>391</v>
+      <c r="U28" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('27', 'M7','FrmMessage', 'tblMainQuesM','Avwg GLb Avcbv‡K Avcbvi wkï [bvg] MZ 7w`‡b [mv¶¨vrKv‡ii w`b †_‡K] wK wK Lvevi †L‡q‡Q †m wel‡q wKQy cÖkœ Ki‡Z PvB|cÖwZwU LveviGi K_v Avwg Rvb‡Z PvB‡ev, MZ 7w`‡bi g‡a¨ KZw`b Avcbvi wkï wbg œwjwLZ Lvevi ¸‡jv †L‡q‡Qb Zv ejyb|&lt;br&gt;&lt;br&gt;hw` wkïwU (bvg) Lvevi †L‡q _v‡K, GgbwK GwU hw` Ab¨vb¨ Lvev‡ii ms‡½ mshy³ _v‡K, D`vniY¯^iƒc,hw` wkïwU (bvg) gyiwMi gvs‡mi †Svj Lvq hv wcqvR, U‡g‡Uv, gyiwMi gvsm w`‡q ‰Zix Zvn‡j Avvwg hLb Avvcbv‡K cÖkœ Ki‡ev gvsm m¤ú‡K© ZLb Avcwb Ón¨vuÓ ej‡eb Avevi hLb Avwg Avcbv‡K cÖkœ Ki‡ev mewR  m¤ú‡K© ZLb Avcwb Avevi Ón¨vuÓ ej‡eb hw` Avcbvi wkï (bvg) `y‡Uv  Lvevi B†L‡q _v‡K, wKš‘ hw` gyiwMi gvsm Avi mewR †KvbUvB bv †L‡q _v‡K Zvn‡j Ón¨vuÓ ej‡eb bv KviY †m G¸jv Lvq wb| ,br&gt;&lt;br&gt;&lt;i&gt;ZvwjKvi cÖwZwU Lvev‡ii Rb¨, cÖkœwU ciyb Ges DIi `vZv †h Kqw`b e‡j †mB bv¤^vi wU Lvwj N‡i wjLyb (0-7)&lt;/i&gt;','Now I would like to ask you some questions about foods [NAME] ate in the last 7 days, since last [INTERVIEW DAY]. For each food I ask about, please tell me how many days in the last 7 days you think the child ate that food.&lt;br&gt;&lt;br&gt;I would like to know if [NAME] had the food, even if it was combined with other foods. For example, if [NAME] ate a sauce or relish made with chicken, onions, and tomatoes, you should say “yes” when I ask about meat, and again “yes” when I ask about vegetables. However, if [NAME] only had the broth, not the chicken or vegetables, do not say “yes” because they did not eat it. &lt;br&gt;&lt;br&gt;&lt;i&gt;For each item on the list, read the question below and fill in the number of days the respondent says (0-7).&lt;/i&gt;','','c611','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="12" customFormat="1" ht="39">
       <c r="A29" s="78">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B29" s="42" t="s">
         <v>84</v>
@@ -3730,13 +3706,14 @@
       <c r="T29" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U29" s="64" t="s">
-        <v>392</v>
+      <c r="U29" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('28', 'c611','FrmMultipleCheckComboTwo', 'tblMainques','611. MZ mvZ w`‡b Avcbvi wkï [bvg] Kqw`b GB Lvevi †L‡q‡Q [ ZvwjKvi Lvevi]? (ZvwjKv †_‡K cÖ‡Z¨KwU cÖkœ c‡o †kvbvb )','611. How many days in the last 7 days did [NAME] have [ITEM FROM LIST]?','','c612_Message','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="12" customFormat="1" ht="76.5">
       <c r="A30" s="78">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B30" s="42" t="s">
         <v>93</v>
@@ -3754,8 +3731,8 @@
         <v>95</v>
       </c>
       <c r="G30" s="45"/>
-      <c r="H30" s="88" t="s">
-        <v>92</v>
+      <c r="H30" s="42" t="s">
+        <v>121</v>
       </c>
       <c r="I30" s="42"/>
       <c r="J30" s="45"/>
@@ -3775,13 +3752,14 @@
       <c r="T30" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U30" s="64" t="s">
-        <v>393</v>
+      <c r="U30" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('29', 'c612_Message','FrmMessage', 'tblMainquesM','612. MZ mvZ w`‡bi g‡a¨ Kqw`b Avcbvi wkï [bvg] GB Lvevi †L‡q‡Q [mv¶vrKv‡ii w`b †_‡K] [ZvwjKvi Lvevi]? wkï Lv`¨ Ges we‡kl Lvevi hv wkï MZ mvZ w`‡b †L‡q‡Q','612. On how many days in the last 7 days, since last [INTERVIEW DAY], did [NAME] have any [ITEM FROM LIST]? Infant formula and special foods eaten by the child in the last seven days','','b612','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="12" customFormat="1" ht="57" customHeight="1">
       <c r="A31" s="78">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B31" s="42" t="s">
         <v>121</v>
@@ -3820,8 +3798,9 @@
       <c r="T31" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="U31" s="64" t="s">
-        <v>394</v>
+      <c r="U31" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('30', 'b612','frmfoodgroup', 'tblMainQues','612. Avwg GLb Rvb‡Z PvB Avcbvi wkï [bvg]  MZ 7w`‡bi g‡a¨ wbg œwjwLZ Lvevi¸‡jv hv evRvi ‡_‡K ‡Kbv n‡q‡Q, ‡mMy‡jv KZw`b ‡L‡q‡Q |','Now I would like to ask you during last 7 days how many days [Name] has eaten any of these foods items bought from the market.','','END','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
     <row r="32" spans="1:21" s="12" customFormat="1" ht="19.5">
@@ -4465,8 +4444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4563,7 +4542,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5">
+      <c r="A5" s="35">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -4584,7 +4563,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6">
+      <c r="A6" s="35">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -4605,7 +4584,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7">
+      <c r="A7" s="35">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -4626,7 +4605,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8">
+      <c r="A8" s="35">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -4647,7 +4626,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9">
+      <c r="A9" s="35">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -4668,7 +4647,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10">
+      <c r="A10" s="35">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -4689,7 +4668,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11">
+      <c r="A11" s="35">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -4710,7 +4689,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12">
+      <c r="A12" s="35">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -4731,7 +4710,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13">
+      <c r="A13" s="35">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -4752,7 +4731,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14">
+      <c r="A14" s="35">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -4773,7 +4752,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="25.5">
-      <c r="A15">
+      <c r="A15" s="35">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -4794,7 +4773,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="25.5">
-      <c r="A16">
+      <c r="A16" s="35">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -4815,7 +4794,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="25.5">
-      <c r="A17">
+      <c r="A17" s="35">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -4836,7 +4815,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18">
+      <c r="A18" s="35">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -4857,7 +4836,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19">
+      <c r="A19" s="35">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -4878,7 +4857,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20">
+      <c r="A20" s="35">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -4899,7 +4878,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21">
+      <c r="A21" s="35">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -4920,7 +4899,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22">
+      <c r="A22" s="35">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -4944,7 +4923,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23">
+      <c r="A23" s="35">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -4965,7 +4944,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24">
+      <c r="A24" s="35">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -4986,7 +4965,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25">
+      <c r="A25" s="35">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -5010,7 +4989,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26">
+      <c r="A26" s="35">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -5031,7 +5010,7 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27">
+      <c r="A27" s="35">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -5052,7 +5031,7 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28">
+      <c r="A28" s="35">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -5073,7 +5052,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29">
+      <c r="A29" s="35">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -5094,7 +5073,7 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30">
+      <c r="A30" s="35">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -5118,7 +5097,7 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31">
+      <c r="A31" s="35">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -5139,7 +5118,7 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32">
+      <c r="A32" s="35">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -5160,7 +5139,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="27">
-      <c r="A33">
+      <c r="A33" s="35">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -5181,7 +5160,7 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34">
+      <c r="A34" s="35">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -5202,7 +5181,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="25.5">
-      <c r="A35">
+      <c r="A35" s="35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -5226,7 +5205,7 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36">
+      <c r="A36" s="35">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -5247,7 +5226,7 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37">
+      <c r="A37" s="35">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -5268,7 +5247,7 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38">
+      <c r="A38" s="35">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -5289,7 +5268,7 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39">
+      <c r="A39" s="35">
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -5313,7 +5292,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="27">
-      <c r="A40">
+      <c r="A40" s="35">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -5334,7 +5313,7 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41">
+      <c r="A41" s="35">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -5355,7 +5334,7 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42">
+      <c r="A42" s="35">
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -5376,7 +5355,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="25.5">
-      <c r="A43">
+      <c r="A43" s="35">
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -5397,7 +5376,7 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44">
+      <c r="A44" s="35">
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -5418,7 +5397,7 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45">
+      <c r="A45" s="35">
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -5442,7 +5421,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="33">
-      <c r="A46">
+      <c r="A46" s="35">
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -5452,7 +5431,7 @@
         <v>192</v>
       </c>
       <c r="D46" s="82" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="E46">
         <v>6</v>
@@ -5463,7 +5442,7 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47">
+      <c r="A47" s="35">
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -5487,7 +5466,7 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48">
+      <c r="A48" s="35">
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -5511,7 +5490,7 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49">
+      <c r="A49" s="35">
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -5535,7 +5514,7 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50">
+      <c r="A50" s="35">
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -5559,7 +5538,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="33">
-      <c r="A51">
+      <c r="A51" s="35">
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -5569,7 +5548,7 @@
         <v>195</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="E51">
         <v>12</v>
@@ -5580,7 +5559,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="27">
-      <c r="A52">
+      <c r="A52" s="35">
         <v>51</v>
       </c>
       <c r="B52" t="s">
@@ -5601,7 +5580,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="27">
-      <c r="A53">
+      <c r="A53" s="35">
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -5622,7 +5601,7 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54">
+      <c r="A54" s="35">
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -5643,7 +5622,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="40.5">
-      <c r="A55">
+      <c r="A55" s="35">
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -5664,7 +5643,7 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56">
+      <c r="A56" s="35">
         <v>55</v>
       </c>
       <c r="B56" t="s">
@@ -5685,7 +5664,7 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57">
+      <c r="A57" s="35">
         <v>56</v>
       </c>
       <c r="B57" t="s">
@@ -5706,7 +5685,7 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58">
+      <c r="A58" s="35">
         <v>57</v>
       </c>
       <c r="B58" t="s">
@@ -5727,7 +5706,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="40.5">
-      <c r="A59">
+      <c r="A59" s="35">
         <v>58</v>
       </c>
       <c r="B59" t="s">
@@ -5748,7 +5727,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="38.25">
-      <c r="A60">
+      <c r="A60" s="35">
         <v>59</v>
       </c>
       <c r="B60" t="s">
@@ -5769,7 +5748,7 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61">
+      <c r="A61" s="35">
         <v>60</v>
       </c>
       <c r="B61" t="s">
@@ -5790,7 +5769,7 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62">
+      <c r="A62" s="35">
         <v>61</v>
       </c>
       <c r="B62" t="s">
@@ -5811,7 +5790,7 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63">
+      <c r="A63" s="35">
         <v>62</v>
       </c>
       <c r="B63" t="s">
@@ -5832,7 +5811,7 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64">
+      <c r="A64" s="35">
         <v>63</v>
       </c>
       <c r="B64" t="s">
@@ -5853,7 +5832,7 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65">
+      <c r="A65" s="35">
         <v>64</v>
       </c>
       <c r="B65" t="s">
@@ -5874,7 +5853,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="16.5">
-      <c r="A66">
+      <c r="A66" s="35">
         <v>65</v>
       </c>
       <c r="B66" t="s">
@@ -5884,7 +5863,7 @@
         <v>230</v>
       </c>
       <c r="D66" s="82" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -5895,7 +5874,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="54">
-      <c r="A67">
+      <c r="A67" s="35">
         <v>66</v>
       </c>
       <c r="B67" t="s">
@@ -5916,7 +5895,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="27">
-      <c r="A68">
+      <c r="A68" s="35">
         <v>67</v>
       </c>
       <c r="B68" t="s">
@@ -5937,7 +5916,7 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69">
+      <c r="A69" s="35">
         <v>68</v>
       </c>
       <c r="B69" t="s">
@@ -5958,7 +5937,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="63.75">
-      <c r="A70">
+      <c r="A70" s="35">
         <v>69</v>
       </c>
       <c r="B70" t="s">
@@ -5979,7 +5958,7 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71">
+      <c r="A71" s="35">
         <v>70</v>
       </c>
       <c r="B71" t="s">
@@ -6000,7 +5979,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="38.25">
-      <c r="A72">
+      <c r="A72" s="35">
         <v>71</v>
       </c>
       <c r="B72" t="s">
@@ -6021,7 +6000,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="51">
-      <c r="A73">
+      <c r="A73" s="35">
         <v>72</v>
       </c>
       <c r="B73" t="s">
@@ -6042,7 +6021,7 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74">
+      <c r="A74" s="35">
         <v>73</v>
       </c>
       <c r="B74" t="s">
@@ -6063,7 +6042,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="38.25">
-      <c r="A75">
+      <c r="A75" s="35">
         <v>74</v>
       </c>
       <c r="B75" t="s">
@@ -6084,7 +6063,7 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76">
+      <c r="A76" s="35">
         <v>75</v>
       </c>
       <c r="B76" t="s">
@@ -6105,7 +6084,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="27">
-      <c r="A77">
+      <c r="A77" s="35">
         <v>76</v>
       </c>
       <c r="B77" t="s">
@@ -6126,7 +6105,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="51">
-      <c r="A78">
+      <c r="A78" s="35">
         <v>77</v>
       </c>
       <c r="B78" t="s">
@@ -6147,7 +6126,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="25.5">
-      <c r="A79">
+      <c r="A79" s="35">
         <v>78</v>
       </c>
       <c r="B79" t="s">
@@ -6168,7 +6147,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="38.25">
-      <c r="A80">
+      <c r="A80" s="35">
         <v>79</v>
       </c>
       <c r="B80" t="s">
@@ -6189,7 +6168,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="38.25">
-      <c r="A81">
+      <c r="A81" s="35">
         <v>80</v>
       </c>
       <c r="B81" t="s">
@@ -6210,7 +6189,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="25.5">
-      <c r="A82">
+      <c r="A82" s="35">
         <v>81</v>
       </c>
       <c r="B82" t="s">
@@ -6231,7 +6210,7 @@
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83">
+      <c r="A83" s="35">
         <v>82</v>
       </c>
       <c r="B83" t="s">
@@ -6252,7 +6231,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="27">
-      <c r="A84">
+      <c r="A84" s="35">
         <v>83</v>
       </c>
       <c r="B84" t="s">
@@ -6273,7 +6252,7 @@
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85">
+      <c r="A85" s="35">
         <v>84</v>
       </c>
       <c r="B85" t="s">
@@ -6297,7 +6276,7 @@
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86">
+      <c r="A86" s="35">
         <v>85</v>
       </c>
       <c r="B86" t="s">
@@ -6318,7 +6297,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="51">
-      <c r="A87">
+      <c r="A87" s="35">
         <v>86</v>
       </c>
       <c r="B87" t="s">
@@ -6339,7 +6318,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="40.5">
-      <c r="A88">
+      <c r="A88" s="35">
         <v>87</v>
       </c>
       <c r="B88" t="s">
@@ -6360,7 +6339,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="38.25">
-      <c r="A89">
+      <c r="A89" s="35">
         <v>88</v>
       </c>
       <c r="B89" t="s">
@@ -6381,7 +6360,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="38.25">
-      <c r="A90">
+      <c r="A90" s="35">
         <v>89</v>
       </c>
       <c r="B90" t="s">
@@ -6402,7 +6381,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="29.25">
-      <c r="A91">
+      <c r="A91" s="35">
         <v>90</v>
       </c>
       <c r="B91" t="s">
@@ -6423,7 +6402,7 @@
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92">
+      <c r="A92" s="35">
         <v>91</v>
       </c>
       <c r="B92" t="s">
@@ -6433,7 +6412,7 @@
         <v>301</v>
       </c>
       <c r="D92" s="82" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="E92">
         <v>9</v>
@@ -6444,7 +6423,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" ht="27">
-      <c r="A93">
+      <c r="A93" s="35">
         <v>92</v>
       </c>
       <c r="B93" t="s">
@@ -6465,7 +6444,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="51">
-      <c r="A94">
+      <c r="A94" s="35">
         <v>93</v>
       </c>
       <c r="B94" t="s">
@@ -6475,7 +6454,7 @@
         <v>306</v>
       </c>
       <c r="D94" s="82" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="E94">
         <v>7</v>
@@ -6486,7 +6465,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" ht="38.25">
-      <c r="A95">
+      <c r="A95" s="35">
         <v>94</v>
       </c>
       <c r="B95" t="s">
@@ -6507,7 +6486,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="25.5">
-      <c r="A96">
+      <c r="A96" s="35">
         <v>95</v>
       </c>
       <c r="B96" t="s">
@@ -6528,7 +6507,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="66">
-      <c r="A97">
+      <c r="A97" s="35">
         <v>96</v>
       </c>
       <c r="B97" t="s">
@@ -6538,7 +6517,7 @@
         <v>314</v>
       </c>
       <c r="D97" s="82" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -6549,7 +6528,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" ht="40.5">
-      <c r="A98">
+      <c r="A98" s="35">
         <v>97</v>
       </c>
       <c r="B98" t="s">
@@ -6570,7 +6549,7 @@
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99">
+      <c r="A99" s="35">
         <v>98</v>
       </c>
       <c r="B99" t="s">
@@ -6591,7 +6570,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="66">
-      <c r="A100">
+      <c r="A100" s="35">
         <v>99</v>
       </c>
       <c r="B100" t="s">
@@ -6601,7 +6580,7 @@
         <v>322</v>
       </c>
       <c r="D100" s="82" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -6612,7 +6591,7 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101">
+      <c r="A101" s="35">
         <v>100</v>
       </c>
       <c r="B101" t="s">
@@ -6633,7 +6612,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="27">
-      <c r="A102">
+      <c r="A102" s="35">
         <v>101</v>
       </c>
       <c r="B102" t="s">
@@ -6654,7 +6633,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75">
-      <c r="A103">
+      <c r="A103" s="35">
         <v>102</v>
       </c>
       <c r="B103" t="s">
@@ -6664,7 +6643,7 @@
         <v>328</v>
       </c>
       <c r="D103" s="82" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="E103">
         <v>99</v>
@@ -6675,7 +6654,7 @@
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104">
+      <c r="A104" s="35">
         <v>103</v>
       </c>
       <c r="B104" t="s">
@@ -6696,7 +6675,7 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105">
+      <c r="A105" s="35">
         <v>104</v>
       </c>
       <c r="B105" t="s">
@@ -6720,7 +6699,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" ht="27">
-      <c r="A106">
+      <c r="A106" s="35">
         <v>105</v>
       </c>
       <c r="B106" t="s">
@@ -6741,7 +6720,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75">
-      <c r="A107">
+      <c r="A107" s="35">
         <v>106</v>
       </c>
       <c r="B107" t="s">
@@ -6751,7 +6730,7 @@
         <v>328</v>
       </c>
       <c r="D107" s="82" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="E107">
         <v>99</v>
@@ -6762,7 +6741,7 @@
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108">
+      <c r="A108" s="35">
         <v>107</v>
       </c>
       <c r="B108" t="s">
@@ -6786,7 +6765,7 @@
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109">
+      <c r="A109" s="35">
         <v>108</v>
       </c>
       <c r="B109" t="s">
@@ -6810,7 +6789,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" ht="27">
-      <c r="A110">
+      <c r="A110" s="35">
         <v>109</v>
       </c>
       <c r="B110" t="s">
@@ -6831,7 +6810,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75">
-      <c r="A111">
+      <c r="A111" s="35">
         <v>110</v>
       </c>
       <c r="B111" t="s">
@@ -6841,7 +6820,7 @@
         <v>328</v>
       </c>
       <c r="D111" s="82" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="E111">
         <v>99</v>
@@ -6852,7 +6831,7 @@
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112">
+      <c r="A112" s="35">
         <v>111</v>
       </c>
       <c r="B112" t="s">
@@ -6876,7 +6855,7 @@
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113">
+      <c r="A113" s="35">
         <v>112</v>
       </c>
       <c r="B113" t="s">
@@ -6900,7 +6879,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" ht="27">
-      <c r="A114">
+      <c r="A114" s="35">
         <v>113</v>
       </c>
       <c r="B114" t="s">
@@ -6921,7 +6900,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75">
-      <c r="A115">
+      <c r="A115" s="35">
         <v>114</v>
       </c>
       <c r="B115" t="s">
@@ -6931,7 +6910,7 @@
         <v>328</v>
       </c>
       <c r="D115" s="82" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="E115">
         <v>99</v>
@@ -6942,7 +6921,7 @@
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116">
+      <c r="A116" s="35">
         <v>115</v>
       </c>
       <c r="B116" t="s">
@@ -6966,7 +6945,7 @@
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117">
+      <c r="A117" s="35">
         <v>116</v>
       </c>
       <c r="B117" t="s">
@@ -6990,7 +6969,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" ht="27">
-      <c r="A118">
+      <c r="A118" s="35">
         <v>117</v>
       </c>
       <c r="B118" t="s">
@@ -7011,7 +6990,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.75">
-      <c r="A119">
+      <c r="A119" s="35">
         <v>118</v>
       </c>
       <c r="B119" t="s">
@@ -7021,7 +7000,7 @@
         <v>328</v>
       </c>
       <c r="D119" s="82" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="E119">
         <v>99</v>
@@ -7032,7 +7011,7 @@
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120">
+      <c r="A120" s="35">
         <v>119</v>
       </c>
       <c r="B120" t="s">
@@ -7056,7 +7035,7 @@
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121">
+      <c r="A121" s="35">
         <v>120</v>
       </c>
       <c r="B121" t="s">
@@ -7080,7 +7059,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" ht="27">
-      <c r="A122">
+      <c r="A122" s="35">
         <v>121</v>
       </c>
       <c r="B122" t="s">
@@ -7101,7 +7080,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75">
-      <c r="A123">
+      <c r="A123" s="35">
         <v>122</v>
       </c>
       <c r="B123" t="s">
@@ -7111,7 +7090,7 @@
         <v>328</v>
       </c>
       <c r="D123" s="82" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="E123">
         <v>99</v>
@@ -7122,7 +7101,7 @@
       </c>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124">
+      <c r="A124" s="35">
         <v>123</v>
       </c>
       <c r="B124" t="s">
@@ -7146,7 +7125,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="27">
-      <c r="A125">
+      <c r="A125" s="35">
         <v>124</v>
       </c>
       <c r="B125" t="s">
@@ -7167,7 +7146,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75">
-      <c r="A126">
+      <c r="A126" s="35">
         <v>125</v>
       </c>
       <c r="B126" t="s">
@@ -7177,7 +7156,7 @@
         <v>328</v>
       </c>
       <c r="D126" s="82" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="E126">
         <v>99</v>
@@ -7191,7 +7170,7 @@
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127">
+      <c r="A127" s="35">
         <v>126</v>
       </c>
       <c r="B127" t="s">
@@ -7215,7 +7194,7 @@
       </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128">
+      <c r="A128" s="35">
         <v>127</v>
       </c>
       <c r="B128" t="s">
@@ -7236,7 +7215,7 @@
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129">
+      <c r="A129" s="35">
         <v>128</v>
       </c>
       <c r="B129" t="s">
@@ -7257,7 +7236,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" ht="27">
-      <c r="A130">
+      <c r="A130" s="35">
         <v>129</v>
       </c>
       <c r="B130" t="s">
@@ -7278,7 +7257,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" ht="27">
-      <c r="A131">
+      <c r="A131" s="35">
         <v>130</v>
       </c>
       <c r="B131" t="s">
@@ -7299,7 +7278,7 @@
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132">
+      <c r="A132" s="35">
         <v>131</v>
       </c>
       <c r="B132" t="s">
@@ -7320,7 +7299,7 @@
       </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133">
+      <c r="A133" s="35">
         <v>132</v>
       </c>
       <c r="B133" t="s">
@@ -7341,7 +7320,7 @@
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134">
+      <c r="A134" s="35">
         <v>133</v>
       </c>
       <c r="B134" t="s">
@@ -7362,7 +7341,7 @@
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135">
+      <c r="A135" s="35">
         <v>134</v>
       </c>
       <c r="B135" t="s">
@@ -7383,7 +7362,7 @@
       </c>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136">
+      <c r="A136" s="35">
         <v>135</v>
       </c>
       <c r="B136" t="s">
@@ -7404,7 +7383,7 @@
       </c>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137">
+      <c r="A137" s="35">
         <v>136</v>
       </c>
       <c r="B137" t="s">
@@ -7425,7 +7404,7 @@
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138">
+      <c r="A138" s="35">
         <v>137</v>
       </c>
       <c r="B138" t="s">
@@ -7446,7 +7425,7 @@
       </c>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139">
+      <c r="A139" s="35">
         <v>138</v>
       </c>
       <c r="B139" t="s">

--- a/WBFFQ/DB and Documents/WBFFQ.xlsx
+++ b/WBFFQ/DB and Documents/WBFFQ.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="382">
   <si>
     <t>Qdesceng</t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t>c606</t>
-  </si>
-  <si>
-    <t>c607</t>
   </si>
   <si>
     <t>c607a</t>
@@ -2247,7 +2244,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="U2" sqref="U2:U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1"/>
@@ -2446,11 +2443,11 @@
         <v>35</v>
       </c>
       <c r="F2" s="60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="61"/>
       <c r="H2" s="58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I2" s="58"/>
       <c r="J2" s="62"/>
@@ -2480,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="58" t="s">
         <v>26</v>
@@ -2492,7 +2489,7 @@
         <v>1.2</v>
       </c>
       <c r="F3" s="60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G3" s="61"/>
       <c r="H3" s="58" t="s">
@@ -2538,7 +2535,7 @@
         <v>1.3</v>
       </c>
       <c r="F4" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="66"/>
       <c r="H4" s="65" t="s">
@@ -2588,7 +2585,7 @@
       </c>
       <c r="G5" s="66"/>
       <c r="H5" s="65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I5" s="58"/>
       <c r="J5" s="62"/>
@@ -2618,7 +2615,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C6" s="58" t="s">
         <v>26</v>
@@ -2630,11 +2627,11 @@
         <v>1.8</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G6" s="66"/>
       <c r="H6" s="65" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I6" s="58"/>
       <c r="L6" s="63"/>
@@ -2662,7 +2659,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C7" s="58" t="s">
         <v>23</v>
@@ -2674,11 +2671,11 @@
         <v>1.9</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G7" s="66"/>
       <c r="H7" s="65" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I7" s="58"/>
       <c r="L7" s="63"/>
@@ -2706,10 +2703,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D8" s="58" t="s">
         <v>27</v>
@@ -2718,7 +2715,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G8" s="66"/>
       <c r="H8" s="65" t="s">
@@ -2805,10 +2802,10 @@
         <v>29</v>
       </c>
       <c r="E10" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="76" t="s">
         <v>97</v>
-      </c>
-      <c r="F10" s="76" t="s">
-        <v>98</v>
       </c>
       <c r="G10" s="72"/>
       <c r="H10" s="58" t="s">
@@ -2851,7 +2848,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" s="76" t="s">
         <v>38</v>
@@ -2943,10 +2940,10 @@
         <v>27</v>
       </c>
       <c r="E13" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="44" t="s">
         <v>108</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>109</v>
       </c>
       <c r="G13" s="45"/>
       <c r="H13" s="58" t="s">
@@ -3127,7 +3124,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="52" t="s">
         <v>45</v>
@@ -3176,11 +3173,11 @@
         <v>46</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G18" s="45"/>
       <c r="H18" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I18" s="42"/>
       <c r="J18" s="45"/>
@@ -3210,7 +3207,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="42" t="s">
         <v>25</v>
@@ -3256,7 +3253,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>23</v>
@@ -3265,10 +3262,10 @@
         <v>27</v>
       </c>
       <c r="E20" s="77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F20" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" s="45"/>
       <c r="H20" s="58" t="s">
@@ -3311,14 +3308,14 @@
         <v>29</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G21" s="45"/>
       <c r="H21" s="58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I21" s="42"/>
       <c r="J21" s="45"/>
@@ -3348,7 +3345,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="42" t="s">
         <v>30</v>
@@ -3403,14 +3400,14 @@
         <v>27</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F23" s="55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G23" s="45"/>
       <c r="H23" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I23" s="42"/>
       <c r="J23" s="45"/>
@@ -3440,10 +3437,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" s="42" t="s">
         <v>27</v>
@@ -3456,7 +3453,7 @@
       </c>
       <c r="G24" s="45"/>
       <c r="H24" s="58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I24" s="42"/>
       <c r="J24" s="45"/>
@@ -3486,7 +3483,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="42" t="s">
         <v>25</v>
@@ -3495,10 +3492,10 @@
         <v>27</v>
       </c>
       <c r="E25" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="55" t="s">
         <v>99</v>
-      </c>
-      <c r="F25" s="55" t="s">
-        <v>100</v>
       </c>
       <c r="G25" s="45"/>
       <c r="H25" s="58" t="s">
@@ -3541,14 +3538,14 @@
         <v>63</v>
       </c>
       <c r="E26" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="55" t="s">
         <v>118</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>119</v>
       </c>
       <c r="G26" s="45"/>
       <c r="H26" s="58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I26" s="42"/>
       <c r="J26" s="45"/>
@@ -3578,7 +3575,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>23</v>
@@ -3587,7 +3584,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F27" s="51" t="s">
         <v>53</v>
@@ -3633,14 +3630,14 @@
         <v>63</v>
       </c>
       <c r="E28" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="42" t="s">
         <v>114</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>115</v>
       </c>
       <c r="G28" s="45"/>
       <c r="H28" s="58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="45"/>
@@ -3670,7 +3667,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="42" t="s">
         <v>30</v>
@@ -3686,7 +3683,7 @@
       </c>
       <c r="G29" s="45"/>
       <c r="H29" s="58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="45"/>
@@ -3716,7 +3713,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="42" t="s">
         <v>24</v>
@@ -3725,14 +3722,14 @@
         <v>29</v>
       </c>
       <c r="E30" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="42" t="s">
         <v>94</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>95</v>
       </c>
       <c r="G30" s="45"/>
       <c r="H30" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I30" s="42"/>
       <c r="J30" s="45"/>
@@ -3762,19 +3759,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="D31" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="E31" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="49" t="s">
+      <c r="F31" s="51" t="s">
         <v>124</v>
-      </c>
-      <c r="F31" s="51" t="s">
-        <v>125</v>
       </c>
       <c r="G31" s="45"/>
       <c r="H31" s="42" t="s">
@@ -4444,8 +4441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A139"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4459,23 +4456,23 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="D1" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="E1" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="F1" s="80" t="s">
         <v>129</v>
-      </c>
-      <c r="F1" s="80" t="s">
-        <v>130</v>
       </c>
       <c r="G1" s="80"/>
       <c r="H1" s="80" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4486,7 +4483,7 @@
         <v>67</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" s="82">
         <v>0</v>
@@ -4507,7 +4504,7 @@
         <v>67</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" s="82">
         <v>1</v>
@@ -4528,7 +4525,7 @@
         <v>67</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="82">
         <v>2</v>
@@ -4549,7 +4546,7 @@
         <v>67</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="82">
         <v>3</v>
@@ -4570,7 +4567,7 @@
         <v>67</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="82">
         <v>4</v>
@@ -4591,7 +4588,7 @@
         <v>67</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" s="82">
         <v>5</v>
@@ -4612,7 +4609,7 @@
         <v>67</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="82">
         <v>6</v>
@@ -4633,7 +4630,7 @@
         <v>67</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="82">
         <v>7</v>
@@ -4654,7 +4651,7 @@
         <v>67</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="82">
         <v>8</v>
@@ -4675,7 +4672,7 @@
         <v>67</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" s="82">
         <v>9</v>
@@ -4696,7 +4693,7 @@
         <v>67</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="82">
         <v>10</v>
@@ -4717,7 +4714,7 @@
         <v>67</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="82">
         <v>11</v>
@@ -4738,7 +4735,7 @@
         <v>67</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D14" s="82">
         <v>12</v>
@@ -4759,7 +4756,7 @@
         <v>67</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" s="82">
         <v>13</v>
@@ -4780,7 +4777,7 @@
         <v>67</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="82">
         <v>14</v>
@@ -4801,7 +4798,7 @@
         <v>67</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="82">
         <v>15</v>
@@ -4822,7 +4819,7 @@
         <v>67</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D18" s="82">
         <v>16</v>
@@ -4843,7 +4840,7 @@
         <v>67</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" s="82">
         <v>17</v>
@@ -4864,10 +4861,10 @@
         <v>67</v>
       </c>
       <c r="C20" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="82" t="s">
         <v>150</v>
-      </c>
-      <c r="D20" s="82" t="s">
-        <v>151</v>
       </c>
       <c r="E20">
         <v>88</v>
@@ -4885,10 +4882,10 @@
         <v>67</v>
       </c>
       <c r="C21" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="82" t="s">
         <v>152</v>
-      </c>
-      <c r="D21" s="82" t="s">
-        <v>153</v>
       </c>
       <c r="E21">
         <v>99</v>
@@ -4906,10 +4903,10 @@
         <v>69</v>
       </c>
       <c r="C22" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="82" t="s">
         <v>154</v>
-      </c>
-      <c r="D22" s="82" t="s">
-        <v>155</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -4930,10 +4927,10 @@
         <v>69</v>
       </c>
       <c r="C23" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="82" t="s">
         <v>156</v>
-      </c>
-      <c r="D23" s="82" t="s">
-        <v>157</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -4951,10 +4948,10 @@
         <v>70</v>
       </c>
       <c r="C24" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="82" t="s">
         <v>154</v>
-      </c>
-      <c r="D24" s="82" t="s">
-        <v>155</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -4972,10 +4969,10 @@
         <v>70</v>
       </c>
       <c r="C25" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="82" t="s">
         <v>156</v>
-      </c>
-      <c r="D25" s="82" t="s">
-        <v>157</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -4996,10 +4993,10 @@
         <v>71</v>
       </c>
       <c r="C26" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="82" t="s">
         <v>158</v>
-      </c>
-      <c r="D26" s="82" t="s">
-        <v>159</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -5017,10 +5014,10 @@
         <v>71</v>
       </c>
       <c r="C27" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="82" t="s">
         <v>160</v>
-      </c>
-      <c r="D27" s="82" t="s">
-        <v>161</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -5038,10 +5035,10 @@
         <v>71</v>
       </c>
       <c r="C28" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="82" t="s">
         <v>162</v>
-      </c>
-      <c r="D28" s="82" t="s">
-        <v>163</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -5059,10 +5056,10 @@
         <v>71</v>
       </c>
       <c r="C29" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="82" t="s">
         <v>164</v>
-      </c>
-      <c r="D29" s="82" t="s">
-        <v>165</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -5104,10 +5101,10 @@
         <v>73</v>
       </c>
       <c r="C31" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="82" t="s">
         <v>166</v>
-      </c>
-      <c r="D31" s="82" t="s">
-        <v>167</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -5125,10 +5122,10 @@
         <v>73</v>
       </c>
       <c r="C32" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="82" t="s">
         <v>168</v>
-      </c>
-      <c r="D32" s="82" t="s">
-        <v>169</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -5146,10 +5143,10 @@
         <v>73</v>
       </c>
       <c r="C33" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="82" t="s">
         <v>170</v>
-      </c>
-      <c r="D33" s="82" t="s">
-        <v>171</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -5167,10 +5164,10 @@
         <v>73</v>
       </c>
       <c r="C34" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="82" t="s">
         <v>172</v>
-      </c>
-      <c r="D34" s="82" t="s">
-        <v>173</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -5188,16 +5185,16 @@
         <v>73</v>
       </c>
       <c r="C35" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="82" t="s">
         <v>174</v>
-      </c>
-      <c r="D35" s="82" t="s">
-        <v>175</v>
       </c>
       <c r="E35">
         <v>88</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="35" t="str">
         <f t="shared" si="0"/>
@@ -5212,10 +5209,10 @@
         <v>73</v>
       </c>
       <c r="C36" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="82" t="s">
         <v>176</v>
-      </c>
-      <c r="D36" s="82" t="s">
-        <v>177</v>
       </c>
       <c r="E36">
         <v>99</v>
@@ -5233,10 +5230,10 @@
         <v>74</v>
       </c>
       <c r="C37" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="82" t="s">
         <v>154</v>
-      </c>
-      <c r="D37" s="82" t="s">
-        <v>155</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -5254,10 +5251,10 @@
         <v>74</v>
       </c>
       <c r="C38" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="82" t="s">
         <v>156</v>
-      </c>
-      <c r="D38" s="82" t="s">
-        <v>157</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -5275,20 +5272,20 @@
         <v>75</v>
       </c>
       <c r="C39" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="82" t="s">
         <v>178</v>
-      </c>
-      <c r="D39" s="82" t="s">
-        <v>179</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
-      <c r="F39" t="s">
-        <v>77</v>
+      <c r="F39" s="35" t="s">
+        <v>79</v>
       </c>
       <c r="H39" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('38','c605', 'Still, breastfeeding','GL‡bv ey‡Ki `ya cvb K‡i','1','c607');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('38','c605', 'Still, breastfeeding','GL‡bv ey‡Ki `ya cvb K‡i','1','c607c');</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="27">
@@ -5299,10 +5296,10 @@
         <v>75</v>
       </c>
       <c r="C40" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" s="82" t="s">
         <v>180</v>
-      </c>
-      <c r="D40" s="82" t="s">
-        <v>181</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -5317,13 +5314,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="82" t="s">
         <v>182</v>
-      </c>
-      <c r="D41" s="82" t="s">
-        <v>183</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -5338,13 +5335,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" s="82" t="s">
         <v>184</v>
-      </c>
-      <c r="D42" s="82" t="s">
-        <v>185</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -5359,13 +5356,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="82" t="s">
         <v>186</v>
-      </c>
-      <c r="D43" s="82" t="s">
-        <v>187</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -5380,13 +5377,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D44" s="82" t="s">
         <v>188</v>
-      </c>
-      <c r="D44" s="82" t="s">
-        <v>189</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -5401,19 +5398,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" s="82" t="s">
         <v>190</v>
-      </c>
-      <c r="D45" s="82" t="s">
-        <v>191</v>
       </c>
       <c r="E45">
         <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H45" s="35" t="str">
         <f t="shared" si="0"/>
@@ -5425,13 +5422,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D46" s="82" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E46">
         <v>6</v>
@@ -5446,10 +5443,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D47" s="82" t="s">
         <v>56</v>
@@ -5458,7 +5455,7 @@
         <v>77</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H47" s="35" t="str">
         <f t="shared" si="0"/>
@@ -5470,19 +5467,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="82" t="s">
         <v>154</v>
-      </c>
-      <c r="D48" s="82" t="s">
-        <v>155</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H48" s="35" t="str">
         <f t="shared" si="0"/>
@@ -5494,13 +5491,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="82" t="s">
         <v>156</v>
-      </c>
-      <c r="D49" s="82" t="s">
-        <v>157</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -5518,13 +5515,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C50" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="82" t="s">
         <v>176</v>
-      </c>
-      <c r="D50" s="82" t="s">
-        <v>177</v>
       </c>
       <c r="E50">
         <v>99</v>
@@ -5542,13 +5539,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="C51" s="34" t="s">
-        <v>195</v>
-      </c>
       <c r="D51" s="82" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E51">
         <v>12</v>
@@ -5563,13 +5560,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="D52" s="82" t="s">
         <v>197</v>
-      </c>
-      <c r="D52" s="82" t="s">
-        <v>198</v>
       </c>
       <c r="E52">
         <v>11</v>
@@ -5584,13 +5581,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="D53" s="82" t="s">
         <v>200</v>
-      </c>
-      <c r="D53" s="82" t="s">
-        <v>201</v>
       </c>
       <c r="E53">
         <v>10</v>
@@ -5605,13 +5602,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="D54" s="82" t="s">
         <v>203</v>
-      </c>
-      <c r="D54" s="82" t="s">
-        <v>204</v>
       </c>
       <c r="E54">
         <v>9</v>
@@ -5626,13 +5623,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="D55" s="82" t="s">
         <v>206</v>
-      </c>
-      <c r="D55" s="82" t="s">
-        <v>207</v>
       </c>
       <c r="E55">
         <v>8</v>
@@ -5647,13 +5644,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="D56" s="82" t="s">
         <v>209</v>
-      </c>
-      <c r="D56" s="82" t="s">
-        <v>210</v>
       </c>
       <c r="E56">
         <v>7</v>
@@ -5668,13 +5665,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="D57" s="82" t="s">
         <v>212</v>
-      </c>
-      <c r="D57" s="82" t="s">
-        <v>213</v>
       </c>
       <c r="E57">
         <v>6</v>
@@ -5689,13 +5686,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="D58" s="82" t="s">
         <v>215</v>
-      </c>
-      <c r="D58" s="82" t="s">
-        <v>216</v>
       </c>
       <c r="E58">
         <v>5</v>
@@ -5710,13 +5707,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="D59" s="82" t="s">
         <v>218</v>
-      </c>
-      <c r="D59" s="82" t="s">
-        <v>219</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -5731,13 +5728,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>219</v>
+      </c>
+      <c r="C60" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="D60" s="82" t="s">
         <v>221</v>
-      </c>
-      <c r="D60" s="82" t="s">
-        <v>222</v>
       </c>
       <c r="E60">
         <v>3</v>
@@ -5752,13 +5749,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="C61" s="34" t="s">
-        <v>224</v>
-      </c>
       <c r="D61" s="82" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -5773,13 +5770,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="D62" s="82" t="s">
         <v>226</v>
-      </c>
-      <c r="D62" s="82" t="s">
-        <v>227</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -5794,13 +5791,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C63" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" s="82" t="s">
         <v>154</v>
-      </c>
-      <c r="D63" s="82" t="s">
-        <v>155</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -5815,13 +5812,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C64" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64" s="82" t="s">
         <v>156</v>
-      </c>
-      <c r="D64" s="82" t="s">
-        <v>157</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -5836,13 +5833,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C65" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="82" t="s">
         <v>176</v>
-      </c>
-      <c r="D65" s="82" t="s">
-        <v>177</v>
       </c>
       <c r="E65">
         <v>99</v>
@@ -5857,13 +5854,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>228</v>
+      </c>
+      <c r="C66" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="C66" s="34" t="s">
-        <v>230</v>
-      </c>
       <c r="D66" s="82" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -5878,13 +5875,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>230</v>
+      </c>
+      <c r="C67" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="D67" s="82" t="s">
         <v>232</v>
-      </c>
-      <c r="D67" s="82" t="s">
-        <v>233</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -5899,13 +5896,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>233</v>
+      </c>
+      <c r="C68" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="C68" s="34" t="s">
+      <c r="D68" s="82" t="s">
         <v>235</v>
-      </c>
-      <c r="D68" s="82" t="s">
-        <v>236</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -5920,13 +5917,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="D69" s="82" t="s">
         <v>238</v>
-      </c>
-      <c r="D69" s="82" t="s">
-        <v>239</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -5941,13 +5938,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>239</v>
+      </c>
+      <c r="C70" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="D70" s="82" t="s">
         <v>241</v>
-      </c>
-      <c r="D70" s="82" t="s">
-        <v>242</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -5962,13 +5959,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C71" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="D71" s="82" t="s">
         <v>244</v>
-      </c>
-      <c r="D71" s="82" t="s">
-        <v>245</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -5983,13 +5980,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>245</v>
+      </c>
+      <c r="C72" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="C72" s="34" t="s">
+      <c r="D72" s="82" t="s">
         <v>247</v>
-      </c>
-      <c r="D72" s="82" t="s">
-        <v>248</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -6004,13 +6001,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="D73" s="82" t="s">
         <v>250</v>
-      </c>
-      <c r="D73" s="82" t="s">
-        <v>251</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -6025,13 +6022,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>251</v>
+      </c>
+      <c r="C74" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="D74" s="82" t="s">
         <v>253</v>
-      </c>
-      <c r="D74" s="82" t="s">
-        <v>254</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -6046,13 +6043,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>254</v>
+      </c>
+      <c r="C75" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="C75" s="34" t="s">
+      <c r="D75" s="82" t="s">
         <v>256</v>
-      </c>
-      <c r="D75" s="82" t="s">
-        <v>257</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -6067,13 +6064,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>257</v>
+      </c>
+      <c r="C76" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="C76" s="34" t="s">
+      <c r="D76" s="82" t="s">
         <v>259</v>
-      </c>
-      <c r="D76" s="82" t="s">
-        <v>260</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -6088,13 +6085,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>260</v>
+      </c>
+      <c r="C77" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="C77" s="34" t="s">
+      <c r="D77" s="82" t="s">
         <v>262</v>
-      </c>
-      <c r="D77" s="82" t="s">
-        <v>263</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -6109,13 +6106,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>263</v>
+      </c>
+      <c r="C78" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="C78" s="34" t="s">
+      <c r="D78" s="82" t="s">
         <v>265</v>
-      </c>
-      <c r="D78" s="82" t="s">
-        <v>266</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -6130,13 +6127,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>266</v>
+      </c>
+      <c r="C79" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="C79" s="34" t="s">
+      <c r="D79" s="82" t="s">
         <v>268</v>
-      </c>
-      <c r="D79" s="82" t="s">
-        <v>269</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -6151,13 +6148,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="C80" s="34" t="s">
+      <c r="D80" s="82" t="s">
         <v>271</v>
-      </c>
-      <c r="D80" s="82" t="s">
-        <v>272</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -6172,13 +6169,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>272</v>
+      </c>
+      <c r="C81" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="C81" s="34" t="s">
+      <c r="D81" s="82" t="s">
         <v>274</v>
-      </c>
-      <c r="D81" s="82" t="s">
-        <v>275</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -6193,13 +6190,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>275</v>
+      </c>
+      <c r="C82" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="C82" s="34" t="s">
+      <c r="D82" s="82" t="s">
         <v>277</v>
-      </c>
-      <c r="D82" s="82" t="s">
-        <v>278</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -6214,13 +6211,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>278</v>
+      </c>
+      <c r="C83" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="C83" s="34" t="s">
+      <c r="D83" s="82" t="s">
         <v>280</v>
-      </c>
-      <c r="D83" s="82" t="s">
-        <v>281</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -6235,13 +6232,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>281</v>
+      </c>
+      <c r="C84" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="D84" s="82" t="s">
         <v>283</v>
-      </c>
-      <c r="D84" s="82" t="s">
-        <v>284</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -6256,19 +6253,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D85" s="82" t="s">
         <v>154</v>
-      </c>
-      <c r="D85" s="82" t="s">
-        <v>155</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H85" s="35" t="str">
         <f t="shared" si="1"/>
@@ -6280,13 +6277,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D86" s="82" t="s">
         <v>156</v>
-      </c>
-      <c r="D86" s="82" t="s">
-        <v>157</v>
       </c>
       <c r="E86">
         <v>2</v>
@@ -6301,13 +6298,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>284</v>
+      </c>
+      <c r="C87" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="C87" s="34" t="s">
+      <c r="D87" s="82" t="s">
         <v>286</v>
-      </c>
-      <c r="D87" s="82" t="s">
-        <v>287</v>
       </c>
       <c r="E87">
         <v>14</v>
@@ -6322,13 +6319,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>287</v>
+      </c>
+      <c r="C88" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="C88" s="34" t="s">
+      <c r="D88" s="82" t="s">
         <v>289</v>
-      </c>
-      <c r="D88" s="82" t="s">
-        <v>290</v>
       </c>
       <c r="E88">
         <v>13</v>
@@ -6343,13 +6340,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>290</v>
+      </c>
+      <c r="C89" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="C89" s="34" t="s">
+      <c r="D89" s="82" t="s">
         <v>292</v>
-      </c>
-      <c r="D89" s="82" t="s">
-        <v>293</v>
       </c>
       <c r="E89">
         <v>12</v>
@@ -6364,13 +6361,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>293</v>
+      </c>
+      <c r="C90" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="C90" s="34" t="s">
+      <c r="D90" s="82" t="s">
         <v>295</v>
-      </c>
-      <c r="D90" s="82" t="s">
-        <v>296</v>
       </c>
       <c r="E90">
         <v>11</v>
@@ -6385,13 +6382,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>296</v>
+      </c>
+      <c r="C91" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="C91" s="34" t="s">
+      <c r="D91" s="82" t="s">
         <v>298</v>
-      </c>
-      <c r="D91" s="82" t="s">
-        <v>299</v>
       </c>
       <c r="E91">
         <v>10</v>
@@ -6406,13 +6403,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>299</v>
+      </c>
+      <c r="C92" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="C92" s="34" t="s">
-        <v>301</v>
-      </c>
       <c r="D92" s="82" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E92">
         <v>9</v>
@@ -6427,13 +6424,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>301</v>
+      </c>
+      <c r="C93" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="C93" s="34" t="s">
+      <c r="D93" s="82" t="s">
         <v>303</v>
-      </c>
-      <c r="D93" s="82" t="s">
-        <v>304</v>
       </c>
       <c r="E93">
         <v>8</v>
@@ -6448,13 +6445,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>304</v>
+      </c>
+      <c r="C94" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="C94" s="34" t="s">
-        <v>306</v>
-      </c>
       <c r="D94" s="82" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E94">
         <v>7</v>
@@ -6469,13 +6466,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>306</v>
+      </c>
+      <c r="C95" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="C95" s="34" t="s">
+      <c r="D95" s="82" t="s">
         <v>308</v>
-      </c>
-      <c r="D95" s="82" t="s">
-        <v>309</v>
       </c>
       <c r="E95">
         <v>6</v>
@@ -6490,13 +6487,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>309</v>
+      </c>
+      <c r="C96" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="C96" s="34" t="s">
+      <c r="D96" s="82" t="s">
         <v>311</v>
-      </c>
-      <c r="D96" s="82" t="s">
-        <v>312</v>
       </c>
       <c r="E96">
         <v>5</v>
@@ -6511,13 +6508,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>312</v>
+      </c>
+      <c r="C97" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="C97" s="34" t="s">
-        <v>314</v>
-      </c>
       <c r="D97" s="82" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -6532,13 +6529,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>314</v>
+      </c>
+      <c r="C98" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="C98" s="34" t="s">
+      <c r="D98" s="82" t="s">
         <v>316</v>
-      </c>
-      <c r="D98" s="82" t="s">
-        <v>317</v>
       </c>
       <c r="E98">
         <v>3</v>
@@ -6553,13 +6550,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>317</v>
+      </c>
+      <c r="C99" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="C99" s="34" t="s">
+      <c r="D99" s="82" t="s">
         <v>319</v>
-      </c>
-      <c r="D99" s="82" t="s">
-        <v>320</v>
       </c>
       <c r="E99">
         <v>2</v>
@@ -6574,13 +6571,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>320</v>
+      </c>
+      <c r="C100" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="C100" s="34" t="s">
-        <v>322</v>
-      </c>
       <c r="D100" s="82" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -6595,13 +6592,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>322</v>
+      </c>
+      <c r="C101" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="C101" s="34" t="s">
+      <c r="D101" s="82" t="s">
         <v>324</v>
-      </c>
-      <c r="D101" s="82" t="s">
-        <v>325</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -6616,13 +6613,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C102" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="D102" s="82" t="s">
         <v>326</v>
-      </c>
-      <c r="D102" s="82" t="s">
-        <v>327</v>
       </c>
       <c r="E102">
         <v>66</v>
@@ -6637,13 +6634,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D103" s="82" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E103">
         <v>99</v>
@@ -6658,13 +6655,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C104" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="D104" s="82" t="s">
         <v>329</v>
-      </c>
-      <c r="D104" s="82" t="s">
-        <v>330</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -6679,19 +6676,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C105" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="D105" s="82" t="s">
         <v>324</v>
-      </c>
-      <c r="D105" s="82" t="s">
-        <v>325</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H105" s="35" t="str">
         <f t="shared" si="1"/>
@@ -6703,13 +6700,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C106" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="D106" s="82" t="s">
         <v>326</v>
-      </c>
-      <c r="D106" s="82" t="s">
-        <v>327</v>
       </c>
       <c r="E106">
         <v>66</v>
@@ -6724,13 +6721,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D107" s="82" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E107">
         <v>99</v>
@@ -6745,10 +6742,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D108" s="82" t="s">
         <v>56</v>
@@ -6757,7 +6754,7 @@
         <v>77</v>
       </c>
       <c r="F108" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H108" s="35" t="str">
         <f t="shared" si="1"/>
@@ -6769,19 +6766,19 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C109" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="D109" s="82" t="s">
         <v>324</v>
-      </c>
-      <c r="D109" s="82" t="s">
-        <v>325</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H109" s="35" t="str">
         <f t="shared" si="1"/>
@@ -6793,13 +6790,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C110" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="D110" s="82" t="s">
         <v>326</v>
-      </c>
-      <c r="D110" s="82" t="s">
-        <v>327</v>
       </c>
       <c r="E110">
         <v>66</v>
@@ -6814,13 +6811,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D111" s="82" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E111">
         <v>99</v>
@@ -6835,10 +6832,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C112" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D112" s="82" t="s">
         <v>56</v>
@@ -6847,7 +6844,7 @@
         <v>77</v>
       </c>
       <c r="F112" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H112" s="35" t="str">
         <f t="shared" si="1"/>
@@ -6859,19 +6856,19 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C113" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="D113" s="82" t="s">
         <v>324</v>
-      </c>
-      <c r="D113" s="82" t="s">
-        <v>325</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H113" s="35" t="str">
         <f t="shared" si="1"/>
@@ -6883,13 +6880,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C114" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="D114" s="82" t="s">
         <v>326</v>
-      </c>
-      <c r="D114" s="82" t="s">
-        <v>327</v>
       </c>
       <c r="E114">
         <v>66</v>
@@ -6904,13 +6901,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C115" s="34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D115" s="82" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E115">
         <v>99</v>
@@ -6925,10 +6922,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D116" s="82" t="s">
         <v>56</v>
@@ -6937,7 +6934,7 @@
         <v>77</v>
       </c>
       <c r="F116" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H116" s="35" t="str">
         <f t="shared" si="1"/>
@@ -6949,19 +6946,19 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C117" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="D117" s="82" t="s">
         <v>324</v>
-      </c>
-      <c r="D117" s="82" t="s">
-        <v>325</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H117" s="35" t="str">
         <f t="shared" si="1"/>
@@ -6973,13 +6970,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C118" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="D118" s="82" t="s">
         <v>326</v>
-      </c>
-      <c r="D118" s="82" t="s">
-        <v>327</v>
       </c>
       <c r="E118">
         <v>66</v>
@@ -6994,13 +6991,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C119" s="34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D119" s="82" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E119">
         <v>99</v>
@@ -7015,10 +7012,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D120" s="82" t="s">
         <v>56</v>
@@ -7027,7 +7024,7 @@
         <v>77</v>
       </c>
       <c r="F120" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H120" s="35" t="str">
         <f t="shared" si="1"/>
@@ -7039,19 +7036,19 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C121" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="D121" s="82" t="s">
         <v>324</v>
-      </c>
-      <c r="D121" s="82" t="s">
-        <v>325</v>
       </c>
       <c r="E121">
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H121" s="35" t="str">
         <f t="shared" si="1"/>
@@ -7063,13 +7060,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C122" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="D122" s="82" t="s">
         <v>326</v>
-      </c>
-      <c r="D122" s="82" t="s">
-        <v>327</v>
       </c>
       <c r="E122">
         <v>66</v>
@@ -7084,13 +7081,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C123" s="34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D123" s="82" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E123">
         <v>99</v>
@@ -7105,19 +7102,19 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C124" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="D124" s="82" t="s">
         <v>343</v>
-      </c>
-      <c r="D124" s="82" t="s">
-        <v>344</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H124" s="35" t="str">
         <f t="shared" si="1"/>
@@ -7129,13 +7126,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C125" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="D125" s="82" t="s">
         <v>326</v>
-      </c>
-      <c r="D125" s="82" t="s">
-        <v>327</v>
       </c>
       <c r="E125">
         <v>66</v>
@@ -7150,19 +7147,19 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D126" s="82" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E126">
         <v>99</v>
       </c>
       <c r="F126" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H126" s="35" t="str">
         <f t="shared" si="1"/>
@@ -7174,19 +7171,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C127" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="D127" s="82" t="s">
         <v>329</v>
-      </c>
-      <c r="D127" s="82" t="s">
-        <v>330</v>
       </c>
       <c r="E127">
         <v>2</v>
       </c>
       <c r="F127" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H127" s="35" t="str">
         <f t="shared" si="1"/>
@@ -7198,13 +7195,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C128" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D128" s="82" t="s">
         <v>345</v>
-      </c>
-      <c r="D128" s="82" t="s">
-        <v>346</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -7219,13 +7216,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C129" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="D129" s="82" t="s">
         <v>347</v>
-      </c>
-      <c r="D129" s="82" t="s">
-        <v>348</v>
       </c>
       <c r="E129">
         <v>2</v>
@@ -7240,13 +7237,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C130" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="D130" s="82" t="s">
         <v>349</v>
-      </c>
-      <c r="D130" s="82" t="s">
-        <v>350</v>
       </c>
       <c r="E130">
         <v>3</v>
@@ -7261,13 +7258,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
+        <v>350</v>
+      </c>
+      <c r="C131" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="C131" s="34" t="s">
+      <c r="D131" s="82" t="s">
         <v>352</v>
-      </c>
-      <c r="D131" s="82" t="s">
-        <v>353</v>
       </c>
       <c r="E131">
         <v>4</v>
@@ -7282,13 +7279,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>353</v>
+      </c>
+      <c r="C132" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="C132" s="34" t="s">
+      <c r="D132" s="82" t="s">
         <v>355</v>
-      </c>
-      <c r="D132" s="82" t="s">
-        <v>356</v>
       </c>
       <c r="E132">
         <v>3</v>
@@ -7303,13 +7300,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
+        <v>356</v>
+      </c>
+      <c r="C133" s="34" t="s">
         <v>357</v>
       </c>
-      <c r="C133" s="34" t="s">
+      <c r="D133" s="82" t="s">
         <v>358</v>
-      </c>
-      <c r="D133" s="82" t="s">
-        <v>359</v>
       </c>
       <c r="E133">
         <v>2</v>
@@ -7324,13 +7321,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>359</v>
+      </c>
+      <c r="C134" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="C134" s="34" t="s">
+      <c r="D134" s="82" t="s">
         <v>361</v>
-      </c>
-      <c r="D134" s="82" t="s">
-        <v>362</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -7345,13 +7342,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C135" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D135" s="82" t="s">
         <v>154</v>
-      </c>
-      <c r="D135" s="82" t="s">
-        <v>155</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -7366,13 +7363,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C136" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D136" s="82" t="s">
         <v>156</v>
-      </c>
-      <c r="D136" s="82" t="s">
-        <v>157</v>
       </c>
       <c r="E136">
         <v>2</v>
@@ -7387,13 +7384,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
+        <v>364</v>
+      </c>
+      <c r="C137" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="C137" s="34" t="s">
+      <c r="D137" s="82" t="s">
         <v>366</v>
-      </c>
-      <c r="D137" s="82" t="s">
-        <v>367</v>
       </c>
       <c r="E137">
         <v>99</v>
@@ -7408,13 +7405,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C138" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D138" s="82" t="s">
         <v>154</v>
-      </c>
-      <c r="D138" s="82" t="s">
-        <v>155</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -7429,13 +7426,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C139" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D139" s="82" t="s">
         <v>156</v>
-      </c>
-      <c r="D139" s="82" t="s">
-        <v>157</v>
       </c>
       <c r="E139">
         <v>2</v>

--- a/WBFFQ/DB and Documents/WBFFQ.xlsx
+++ b/WBFFQ/DB and Documents/WBFFQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-450" windowWidth="13485" windowHeight="12690"/>
+    <workbookView xWindow="-120" yWindow="-450" windowWidth="13485" windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tbFormMain" sheetId="5" r:id="rId1"/>
@@ -1034,9 +1034,6 @@
     <t>c611_1</t>
   </si>
   <si>
-    <t>Khichuri (tick ‘yes’ and ask for the ingredients and code below according to food group),rice,bread?</t>
-  </si>
-  <si>
     <t>c611_Options_1</t>
   </si>
   <si>
@@ -1304,43 +1301,6 @@
   </si>
   <si>
     <r>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SutonnyMJ"/>
-      </rPr>
-      <t xml:space="preserve">LPzox </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="SutonnyMJ"/>
-      </rPr>
-      <t xml:space="preserve">( </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SutonnyMJ"/>
-      </rPr>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SutonnyMJ"/>
-      </rPr>
-      <t>LPzox wK wK w`‡q ivbœv n‡q‡Q †R‡b wb‡q dzW MÖyc Abyhvqx bx‡P †KvW Kiyb),      fvZ,       iywU?</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>†L‡q‡Q wK Lvqwb</t>
     </r>
     <r>
@@ -1362,6 +1322,12 @@
   </si>
   <si>
     <t>FrmComboBox</t>
+  </si>
+  <si>
+    <t>wLPzox ,fvZ,iywU?</t>
+  </si>
+  <si>
+    <t>Khichuri, rice, bread?</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1634,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1898,6 +1864,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -2240,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DK67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="T24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="U2" sqref="U2:U31"/>
@@ -2585,7 +2554,7 @@
       </c>
       <c r="G5" s="66"/>
       <c r="H5" s="65" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I5" s="58"/>
       <c r="J5" s="62"/>
@@ -2615,7 +2584,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C6" s="58" t="s">
         <v>26</v>
@@ -2627,11 +2596,11 @@
         <v>1.8</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G6" s="66"/>
       <c r="H6" s="65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I6" s="58"/>
       <c r="L6" s="63"/>
@@ -2659,7 +2628,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C7" s="58" t="s">
         <v>23</v>
@@ -2671,11 +2640,11 @@
         <v>1.9</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G7" s="66"/>
       <c r="H7" s="65" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I7" s="58"/>
       <c r="L7" s="63"/>
@@ -2703,10 +2672,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D8" s="58" t="s">
         <v>27</v>
@@ -2715,7 +2684,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G8" s="66"/>
       <c r="H8" s="65" t="s">
@@ -4441,7 +4410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H139"/>
     </sheetView>
   </sheetViews>
@@ -5428,7 +5397,7 @@
         <v>191</v>
       </c>
       <c r="D46" s="82" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E46">
         <v>6</v>
@@ -5545,7 +5514,7 @@
         <v>194</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E51">
         <v>12</v>
@@ -5860,7 +5829,7 @@
         <v>229</v>
       </c>
       <c r="D66" s="82" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -6409,7 +6378,7 @@
         <v>300</v>
       </c>
       <c r="D92" s="82" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E92">
         <v>9</v>
@@ -6451,7 +6420,7 @@
         <v>305</v>
       </c>
       <c r="D94" s="82" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E94">
         <v>7</v>
@@ -6514,7 +6483,7 @@
         <v>313</v>
       </c>
       <c r="D97" s="82" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -6566,7 +6535,7 @@
         <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('98','c611_2', 'Pumpkin, carrots?','wgwó Kzgov, MvRi?','2','');</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="66">
+    <row r="100" spans="1:8" ht="16.5">
       <c r="A100" s="35">
         <v>99</v>
       </c>
@@ -6574,17 +6543,17 @@
         <v>320</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="D100" s="82" t="s">
-        <v>379</v>
+        <v>381</v>
+      </c>
+      <c r="D100" s="88" t="s">
+        <v>380</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
       <c r="H100" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('99','c611_1', 'Khichuri (tick ‘yes’ and ask for the ingredients and code below according to food group),rice,bread?','wLPzox ( wLPzox wK wK w`‡q ivbœv n‡q‡Q †R‡b wb‡q dzW MÖyc Abyhvqx bx‡P †KvW Kiyb),      fvZ,       iywU?','1','');</v>
+        <v>insert into tblOptions (SLNo, QID, CaptionEng, CaptionBang, Code, QNext ) values ('99','c611_1', 'Khichuri, rice, bread?','wLPzox ,fvZ,iywU?','1','');</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -6592,13 +6561,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>321</v>
+      </c>
+      <c r="C101" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="C101" s="34" t="s">
+      <c r="D101" s="82" t="s">
         <v>323</v>
-      </c>
-      <c r="D101" s="82" t="s">
-        <v>324</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -6613,13 +6582,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C102" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="D102" s="82" t="s">
         <v>325</v>
-      </c>
-      <c r="D102" s="82" t="s">
-        <v>326</v>
       </c>
       <c r="E102">
         <v>66</v>
@@ -6634,13 +6603,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D103" s="82" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E103">
         <v>99</v>
@@ -6655,13 +6624,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C104" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="D104" s="82" t="s">
         <v>328</v>
-      </c>
-      <c r="D104" s="82" t="s">
-        <v>329</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -6679,16 +6648,16 @@
         <v>91</v>
       </c>
       <c r="C105" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="D105" s="82" t="s">
         <v>323</v>
-      </c>
-      <c r="D105" s="82" t="s">
-        <v>324</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H105" s="35" t="str">
         <f t="shared" si="1"/>
@@ -6703,10 +6672,10 @@
         <v>91</v>
       </c>
       <c r="C106" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="D106" s="82" t="s">
         <v>325</v>
-      </c>
-      <c r="D106" s="82" t="s">
-        <v>326</v>
       </c>
       <c r="E106">
         <v>66</v>
@@ -6724,10 +6693,10 @@
         <v>91</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D107" s="82" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E107">
         <v>99</v>
@@ -6754,7 +6723,7 @@
         <v>77</v>
       </c>
       <c r="F108" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H108" s="35" t="str">
         <f t="shared" si="1"/>
@@ -6766,19 +6735,19 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C109" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="D109" s="82" t="s">
         <v>323</v>
-      </c>
-      <c r="D109" s="82" t="s">
-        <v>324</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H109" s="35" t="str">
         <f t="shared" si="1"/>
@@ -6790,13 +6759,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C110" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="D110" s="82" t="s">
         <v>325</v>
-      </c>
-      <c r="D110" s="82" t="s">
-        <v>326</v>
       </c>
       <c r="E110">
         <v>66</v>
@@ -6811,13 +6780,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D111" s="82" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E111">
         <v>99</v>
@@ -6832,7 +6801,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C112" s="34" t="s">
         <v>192</v>
@@ -6844,7 +6813,7 @@
         <v>77</v>
       </c>
       <c r="F112" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H112" s="35" t="str">
         <f t="shared" si="1"/>
@@ -6856,19 +6825,19 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C113" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="D113" s="82" t="s">
         <v>323</v>
-      </c>
-      <c r="D113" s="82" t="s">
-        <v>324</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H113" s="35" t="str">
         <f t="shared" si="1"/>
@@ -6880,13 +6849,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C114" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="D114" s="82" t="s">
         <v>325</v>
-      </c>
-      <c r="D114" s="82" t="s">
-        <v>326</v>
       </c>
       <c r="E114">
         <v>66</v>
@@ -6901,13 +6870,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C115" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D115" s="82" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E115">
         <v>99</v>
@@ -6922,7 +6891,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C116" s="34" t="s">
         <v>192</v>
@@ -6934,7 +6903,7 @@
         <v>77</v>
       </c>
       <c r="F116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H116" s="35" t="str">
         <f t="shared" si="1"/>
@@ -6946,19 +6915,19 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C117" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="D117" s="82" t="s">
         <v>323</v>
-      </c>
-      <c r="D117" s="82" t="s">
-        <v>324</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H117" s="35" t="str">
         <f t="shared" si="1"/>
@@ -6970,13 +6939,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C118" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="D118" s="82" t="s">
         <v>325</v>
-      </c>
-      <c r="D118" s="82" t="s">
-        <v>326</v>
       </c>
       <c r="E118">
         <v>66</v>
@@ -6991,13 +6960,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C119" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D119" s="82" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E119">
         <v>99</v>
@@ -7012,7 +6981,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C120" s="34" t="s">
         <v>192</v>
@@ -7024,7 +6993,7 @@
         <v>77</v>
       </c>
       <c r="F120" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H120" s="35" t="str">
         <f t="shared" si="1"/>
@@ -7036,19 +7005,19 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C121" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="D121" s="82" t="s">
         <v>323</v>
-      </c>
-      <c r="D121" s="82" t="s">
-        <v>324</v>
       </c>
       <c r="E121">
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H121" s="35" t="str">
         <f t="shared" si="1"/>
@@ -7060,13 +7029,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C122" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="D122" s="82" t="s">
         <v>325</v>
-      </c>
-      <c r="D122" s="82" t="s">
-        <v>326</v>
       </c>
       <c r="E122">
         <v>66</v>
@@ -7081,13 +7050,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C123" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D123" s="82" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E123">
         <v>99</v>
@@ -7105,10 +7074,10 @@
         <v>86</v>
       </c>
       <c r="C124" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="D124" s="82" t="s">
         <v>342</v>
-      </c>
-      <c r="D124" s="82" t="s">
-        <v>343</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -7129,10 +7098,10 @@
         <v>86</v>
       </c>
       <c r="C125" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="D125" s="82" t="s">
         <v>325</v>
-      </c>
-      <c r="D125" s="82" t="s">
-        <v>326</v>
       </c>
       <c r="E125">
         <v>66</v>
@@ -7150,10 +7119,10 @@
         <v>86</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D126" s="82" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E126">
         <v>99</v>
@@ -7174,10 +7143,10 @@
         <v>86</v>
       </c>
       <c r="C127" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="D127" s="82" t="s">
         <v>328</v>
-      </c>
-      <c r="D127" s="82" t="s">
-        <v>329</v>
       </c>
       <c r="E127">
         <v>2</v>
@@ -7198,10 +7167,10 @@
         <v>85</v>
       </c>
       <c r="C128" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="D128" s="82" t="s">
         <v>344</v>
-      </c>
-      <c r="D128" s="82" t="s">
-        <v>345</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -7219,10 +7188,10 @@
         <v>85</v>
       </c>
       <c r="C129" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="D129" s="82" t="s">
         <v>346</v>
-      </c>
-      <c r="D129" s="82" t="s">
-        <v>347</v>
       </c>
       <c r="E129">
         <v>2</v>
@@ -7240,10 +7209,10 @@
         <v>85</v>
       </c>
       <c r="C130" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="D130" s="82" t="s">
         <v>348</v>
-      </c>
-      <c r="D130" s="82" t="s">
-        <v>349</v>
       </c>
       <c r="E130">
         <v>3</v>
@@ -7258,13 +7227,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
+        <v>349</v>
+      </c>
+      <c r="C131" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="C131" s="34" t="s">
+      <c r="D131" s="82" t="s">
         <v>351</v>
-      </c>
-      <c r="D131" s="82" t="s">
-        <v>352</v>
       </c>
       <c r="E131">
         <v>4</v>
@@ -7279,13 +7248,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>352</v>
+      </c>
+      <c r="C132" s="34" t="s">
         <v>353</v>
       </c>
-      <c r="C132" s="34" t="s">
+      <c r="D132" s="82" t="s">
         <v>354</v>
-      </c>
-      <c r="D132" s="82" t="s">
-        <v>355</v>
       </c>
       <c r="E132">
         <v>3</v>
@@ -7300,13 +7269,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
+        <v>355</v>
+      </c>
+      <c r="C133" s="34" t="s">
         <v>356</v>
       </c>
-      <c r="C133" s="34" t="s">
+      <c r="D133" s="82" t="s">
         <v>357</v>
-      </c>
-      <c r="D133" s="82" t="s">
-        <v>358</v>
       </c>
       <c r="E133">
         <v>2</v>
@@ -7321,13 +7290,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>358</v>
+      </c>
+      <c r="C134" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="C134" s="34" t="s">
+      <c r="D134" s="82" t="s">
         <v>360</v>
-      </c>
-      <c r="D134" s="82" t="s">
-        <v>361</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -7342,7 +7311,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C135" s="34" t="s">
         <v>153</v>
@@ -7363,7 +7332,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C136" s="34" t="s">
         <v>155</v>
@@ -7384,13 +7353,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
+        <v>363</v>
+      </c>
+      <c r="C137" s="34" t="s">
         <v>364</v>
       </c>
-      <c r="C137" s="34" t="s">
+      <c r="D137" s="82" t="s">
         <v>365</v>
-      </c>
-      <c r="D137" s="82" t="s">
-        <v>366</v>
       </c>
       <c r="E137">
         <v>99</v>

--- a/WBFFQ/DB and Documents/WBFFQ.xlsx
+++ b/WBFFQ/DB and Documents/WBFFQ.xlsx
@@ -2210,7 +2210,7 @@
   <dimension ref="A1:DK67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="T24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="T26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="U2" sqref="U2:U31"/>
@@ -4410,8 +4410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H139"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6560,7 +6560,7 @@
       <c r="A101" s="35">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="35" t="s">
         <v>321</v>
       </c>
       <c r="C101" s="34" t="s">
@@ -6581,7 +6581,7 @@
       <c r="A102" s="35">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="35" t="s">
         <v>321</v>
       </c>
       <c r="C102" s="34" t="s">
@@ -6602,7 +6602,7 @@
       <c r="A103" s="35">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="35" t="s">
         <v>321</v>
       </c>
       <c r="C103" s="34" t="s">
@@ -6623,7 +6623,7 @@
       <c r="A104" s="35">
         <v>103</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="35" t="s">
         <v>321</v>
       </c>
       <c r="C104" s="34" t="s">

--- a/WBFFQ/DB and Documents/WBFFQ.xlsx
+++ b/WBFFQ/DB and Documents/WBFFQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-450" windowWidth="13485" windowHeight="12690" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-450" windowWidth="13485" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="tbFormMain" sheetId="5" r:id="rId1"/>
@@ -2209,11 +2209,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DK67"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="T26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2:U31"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.25" customHeight="1"/>
@@ -3033,7 +3033,7 @@
         <v>insert into tblQuestion (SLNo, Qvar,Formname, Tablename, Qdescbng,Qdesceng,QType ,Qnext1,Qnext2, Qnext3, Qnext4, Qchoice1eng,Qchoice2eng,Qchoice3eng,Qchoice1Bng,Qchoice2Bng,Qchoice3Bng,Qrange1,Qrange2,DataType) values ('14', 'c603_other','FrmText', 'tblMainques','Ab¨vb¨ (wbwÏ©ó Kiyb)','Other (specify)','','M11','','', '','','','','','','',NULL,NULL,'varchar(100)');</v>
       </c>
     </row>
-    <row r="16" spans="1:115" s="12" customFormat="1" ht="19.5">
+    <row r="16" spans="1:115" s="12" customFormat="1" ht="25.5">
       <c r="A16" s="78">
         <v>15</v>
       </c>
@@ -4410,7 +4410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
